--- a/data_management/management/2. harmonization/ENCOVI harmonization/Statistics_for presentation_TS.xlsx
+++ b/data_management/management/2. harmonization/ENCOVI harmonization/Statistics_for presentation_TS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb563583\GitHub\VEN\data_management\management\2. harmonization\ENCOVI harmonization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb550905\Github\VEN\data_management\management\2. harmonization\ENCOVI harmonization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD95CCA-66F4-4C6C-B557-7FDB49077A2A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A2F455-37A5-4B40-A3AD-EA3068B9806C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16890" yWindow="5430" windowWidth="10125" windowHeight="7500" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -349,12 +349,6 @@
     <t>Cuenta de ahorro</t>
   </si>
   <si>
-    <t>Tarjeta de credito</t>
-  </si>
-  <si>
-    <t>Tarjeta de debito</t>
-  </si>
-  <si>
     <t>No tiene cuenta o tarjeta</t>
   </si>
   <si>
@@ -668,6 +662,12 @@
   </si>
   <si>
     <t>Propia (pagándose)</t>
+  </si>
+  <si>
+    <t>Tarjeta de débito</t>
+  </si>
+  <si>
+    <t>Tarjeta de crédito</t>
   </si>
 </sst>
 </file>
@@ -2337,7 +2337,7 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Tarjeta de credito</c:v>
+                  <c:v>Tarjeta de crédito</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2390,7 +2390,7 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Tarjeta de debito</c:v>
+                  <c:v>Tarjeta de débito</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2555,23 +2555,10 @@
         <c:axId val="1619460416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.60000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2606,6 +2593,7 @@
         <c:crossAx val="1599717888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -14731,13 +14719,13 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="7" width="6.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="2" max="7" width="6.44140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="2">
         <v>2014</v>
       </c>
@@ -14757,142 +14745,142 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="B9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -14909,14 +14897,14 @@
       <selection activeCell="B3" sqref="B3:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -14924,7 +14912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -14935,7 +14923,7 @@
         <v>3.9381025780518026</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -14946,7 +14934,7 @@
         <v>3.9683259286124462</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -14957,7 +14945,7 @@
         <v>4.0317949647897962</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -14968,7 +14956,7 @@
         <v>3.9864599389488315</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -14979,7 +14967,7 @@
         <v>3.4061716081844837</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -14990,7 +14978,7 @@
         <v>3.675159428174207</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -15001,7 +14989,7 @@
         <v>3.4454619639133197</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -15012,7 +15000,7 @@
         <v>3.566355366155892</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -15023,7 +15011,7 @@
         <v>3.3366579018950042</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -15034,7 +15022,7 @@
         <v>3.3034122162782968</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -15045,7 +15033,7 @@
         <v>3.3729259225677759</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -15056,7 +15044,7 @@
         <v>3.3427025720071328</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -15067,7 +15055,7 @@
         <v>2.7110345452896909</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -15078,7 +15066,7 @@
         <v>2.2335056064315291</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -15089,7 +15077,7 @@
         <v>1.3932964608456495</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -15113,18 +15101,18 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
-    <col min="2" max="7" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="2" max="7" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -15144,9 +15132,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B4" s="3">
         <v>50.753768844221106</v>
@@ -15167,9 +15155,9 @@
         <v>51.873904370428583</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B5" s="3">
         <v>49.246231155778894</v>
@@ -15190,7 +15178,7 @@
         <v>48.126095629571417</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>69</v>
       </c>
@@ -15213,12 +15201,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
@@ -15238,9 +15226,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B11" s="3">
         <v>27.603534915959106</v>
@@ -15261,9 +15249,9 @@
         <v>24.511137304681597</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B12" s="3">
         <v>19.026165309305146</v>
@@ -15284,9 +15272,9 @@
         <v>14.745972738537795</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B13" s="3">
         <v>15.49124935019927</v>
@@ -15307,9 +15295,9 @@
         <v>13.274095566234474</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B14" s="3">
         <v>13.411887021313465</v>
@@ -15330,9 +15318,9 @@
         <v>13.026264091637199</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B15" s="3">
         <v>11.349852711835037</v>
@@ -15353,9 +15341,9 @@
         <v>12.690784900414059</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B16" s="3">
         <v>8.7506498007277767</v>
@@ -15376,9 +15364,9 @@
         <v>11.493940218212591</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B17" s="3">
         <v>4.3666608906601976</v>
@@ -15399,7 +15387,7 @@
         <v>10.257805180282286</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>69</v>
       </c>
@@ -15422,12 +15410,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
@@ -15447,9 +15435,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B23" s="3">
         <v>24.105545617173522</v>
@@ -15470,9 +15458,9 @@
         <v>21.759747102212856</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B24" s="3">
         <v>36.203041144901611</v>
@@ -15493,9 +15481,9 @@
         <v>36.869637212102965</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B25" s="3">
         <v>26.095706618962431</v>
@@ -15516,9 +15504,9 @@
         <v>25.199458076170405</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B26" s="3">
         <v>9.704830053667262</v>
@@ -15539,9 +15527,9 @@
         <v>10.35300316122234</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B27" s="3">
         <v>3.8908765652951698</v>
@@ -15562,7 +15550,7 @@
         <v>5.8181544482914349</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
@@ -15585,12 +15573,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>0</v>
       </c>
@@ -15610,7 +15598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -15633,7 +15621,7 @@
         <v>4.3197001299839792</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -15656,7 +15644,7 @@
         <v>13.209999697711677</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>3</v>
       </c>
@@ -15679,7 +15667,7 @@
         <v>20.730933164051873</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>4</v>
       </c>
@@ -15702,7 +15690,7 @@
         <v>22.901363320334937</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>5</v>
       </c>
@@ -15725,7 +15713,7 @@
         <v>15.734107191439195</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>6</v>
       </c>
@@ -15748,7 +15736,7 @@
         <v>10.555908225265258</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>7</v>
       </c>
@@ -15771,7 +15759,7 @@
         <v>5.1419243674616855</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>8</v>
       </c>
@@ -15794,7 +15782,7 @@
         <v>3.0712493576373143</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>9</v>
       </c>
@@ -15817,7 +15805,7 @@
         <v>1.6323569420513286</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>10</v>
       </c>
@@ -15840,7 +15828,7 @@
         <v>1.299839787189021</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>11</v>
       </c>
@@ -15863,7 +15851,7 @@
         <v>0.69828602521084615</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>12</v>
       </c>
@@ -15886,7 +15874,7 @@
         <v>0.32647138841026574</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>13</v>
       </c>
@@ -15909,7 +15897,7 @@
         <v>0.1571899277530909</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>14</v>
       </c>
@@ -15932,7 +15920,7 @@
         <v>0.12696109549288112</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>15</v>
       </c>
@@ -15955,7 +15943,7 @@
         <v>4.5343248390314679E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>16</v>
       </c>
@@ -15978,7 +15966,7 @@
         <v>4.8366131616335656E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>17</v>
       </c>
@@ -16001,7 +15989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>18</v>
       </c>
@@ -16024,7 +16012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>69</v>
       </c>
@@ -16047,12 +16035,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
         <v>0</v>
       </c>
@@ -16072,9 +16060,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B56" s="3">
         <v>1.767457979552937</v>
@@ -16095,9 +16083,9 @@
         <v>4.3189167951159071</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B57" s="3">
         <v>7.6243285392479638</v>
@@ -16118,9 +16106,9 @@
         <v>13.207604195001057</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B58" s="3">
         <v>17.882516028417953</v>
@@ -16141,9 +16129,9 @@
         <v>20.727173814489074</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B59" s="3">
         <v>22.665049384855308</v>
@@ -16164,9 +16152,9 @@
         <v>22.897210384743254</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B60" s="3">
         <v>18.88754115404609</v>
@@ -16187,7 +16175,7 @@
         <v>15.731253966814762</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>6</v>
       </c>
@@ -16210,9 +16198,9 @@
         <v>10.55399401577659</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B62" s="3">
         <v>19.944550337896377</v>
@@ -16233,7 +16221,7 @@
         <v>12.563846828059358</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>69</v>
       </c>
@@ -16256,12 +16244,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
         <v>0</v>
       </c>
@@ -16281,7 +16269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>13</v>
       </c>
@@ -16304,7 +16292,7 @@
         <v>0.81705598066854612</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>14</v>
       </c>
@@ -16327,7 +16315,7 @@
         <v>2.1743858236004834</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>15</v>
       </c>
@@ -16350,7 +16338,7 @@
         <v>2.5164115988723319</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>16</v>
       </c>
@@ -16373,7 +16361,7 @@
         <v>0.34202577527184858</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>17</v>
       </c>
@@ -16396,9 +16384,9 @@
         <v>3.2756745871929116</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -16415,317 +16403,317 @@
       <selection activeCell="H22" sqref="H22:N47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B5">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B7">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B8">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B9">
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F9">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B10">
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D10">
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F10">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B11">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D11">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F11">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B12">
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F12" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B13">
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D13">
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F13">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B14">
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D14">
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F14">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F15">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D16" s="8"/>
       <c r="E16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F16">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F17">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F18">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B22">
         <v>2014</v>
       </c>
       <c r="C22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E22">
         <v>2015</v>
       </c>
       <c r="F22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I22" s="2">
         <v>2014</v>
@@ -16746,51 +16734,51 @@
         <v>2019</v>
       </c>
       <c r="P22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R22" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B24">
         <v>413</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E24">
         <v>384</v>
       </c>
       <c r="H24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Q24">
         <v>654</v>
@@ -16802,31 +16790,31 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B25">
         <v>438</v>
       </c>
       <c r="D25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E25">
         <v>567</v>
       </c>
       <c r="H25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M25" s="11"/>
       <c r="P25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="8">
         <v>2304</v>
@@ -16838,38 +16826,38 @@
         <v>8.94</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B26">
         <v>456</v>
       </c>
       <c r="D26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E26">
         <v>451</v>
       </c>
       <c r="H26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q26" s="8">
         <v>1088</v>
@@ -16882,30 +16870,30 @@
       </c>
       <c r="U26" s="8"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q27" s="8">
         <v>1711</v>
@@ -16917,42 +16905,42 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B28">
         <v>918</v>
       </c>
       <c r="D28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E28" s="8">
         <v>1071</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="8">
         <v>1594</v>
@@ -16964,38 +16952,38 @@
         <v>22.22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B29">
         <v>320</v>
       </c>
       <c r="D29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E29">
         <v>166</v>
       </c>
       <c r="H29" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P29" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q29" s="8">
         <v>1985</v>
@@ -17007,30 +16995,30 @@
         <v>28.22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Q30">
         <v>750</v>
@@ -17042,38 +17030,38 @@
         <v>30.48</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B31">
         <v>292</v>
       </c>
       <c r="D31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E31">
         <v>388</v>
       </c>
       <c r="H31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q31">
         <v>843</v>
@@ -17085,36 +17073,36 @@
         <v>33.03</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B32">
         <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E32">
         <v>90</v>
       </c>
       <c r="H32" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P32" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q32" s="8">
         <v>1921</v>
@@ -17127,33 +17115,33 @@
       </c>
       <c r="U32" s="8"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B33">
         <v>451</v>
       </c>
       <c r="D33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E33">
         <v>466</v>
       </c>
       <c r="H33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P33" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q33">
         <v>634</v>
@@ -17165,42 +17153,42 @@
         <v>40.75</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B34">
         <v>390</v>
       </c>
       <c r="D34" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E34">
         <v>354</v>
       </c>
       <c r="H34" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="P34" t="s">
         <v>161</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M34" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="P34" t="s">
-        <v>163</v>
       </c>
       <c r="Q34" s="8">
         <v>1001</v>
@@ -17212,40 +17200,40 @@
         <v>43.78</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B35">
         <v>482</v>
       </c>
       <c r="D35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E35">
         <v>419</v>
       </c>
       <c r="H35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P35" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q35">
         <v>909</v>
@@ -17257,42 +17245,42 @@
         <v>46.53</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B36">
         <v>759</v>
       </c>
       <c r="D36" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E36">
         <v>669</v>
       </c>
       <c r="H36" t="s">
+        <v>161</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="P36" t="s">
         <v>163</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="P36" t="s">
-        <v>165</v>
       </c>
       <c r="Q36" s="8">
         <v>1501</v>
@@ -17304,42 +17292,42 @@
         <v>51.06</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B37">
         <v>593</v>
       </c>
       <c r="D37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E37">
         <v>717</v>
       </c>
       <c r="H37" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q37" s="8">
         <v>2017</v>
@@ -17352,42 +17340,42 @@
       </c>
       <c r="U37" s="8"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B38">
         <v>182</v>
       </c>
       <c r="D38" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E38">
         <v>203</v>
       </c>
       <c r="H38" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q38" s="8">
         <v>2035</v>
@@ -17399,26 +17387,26 @@
         <v>63.31</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H39" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="11"/>
       <c r="K39" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P39" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Q39" s="8">
         <v>1122</v>
@@ -17430,9 +17418,9 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H40" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="11"/>
@@ -17440,11 +17428,11 @@
       <c r="L40" s="2"/>
       <c r="M40" s="11"/>
       <c r="N40" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q40" s="8"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B41" s="8">
         <v>5771</v>
       </c>
@@ -17452,22 +17440,22 @@
         <v>5945</v>
       </c>
       <c r="H41" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P41" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q41" s="8">
         <v>2828</v>
@@ -17480,30 +17468,30 @@
       </c>
       <c r="U41" s="8"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P42" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Q42" s="8">
         <v>1613</v>
@@ -17515,30 +17503,30 @@
         <v>80.12</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H43" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P43" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q43" s="8">
         <v>2403</v>
@@ -17550,26 +17538,26 @@
         <v>87.38</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P44" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q44" s="8">
         <v>1218</v>
@@ -17581,24 +17569,24 @@
         <v>91.07</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H45" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P45" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q45" s="8">
         <v>2153</v>
@@ -17610,30 +17598,30 @@
         <v>97.57</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H46" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P46" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q46">
         <v>803</v>
@@ -17645,30 +17633,30 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H47" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="R48" s="8"/>
       <c r="S48" s="8"/>
     </row>
-    <row r="49" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="12:13" x14ac:dyDescent="0.3">
       <c r="L49" t="s">
         <v>69</v>
       </c>
@@ -17683,23 +17671,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="8" customWidth="1"/>
-    <col min="2" max="7" width="9.140625" style="11"/>
-    <col min="8" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="23.5546875" style="8" customWidth="1"/>
+    <col min="2" max="7" width="9.109375" style="11"/>
+    <col min="8" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
@@ -17719,7 +17707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>72</v>
       </c>
@@ -17742,7 +17730,7 @@
         <v>35.440998791784132</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>73</v>
       </c>
@@ -17765,7 +17753,7 @@
         <v>61.568666935159079</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>74</v>
       </c>
@@ -17788,7 +17776,7 @@
         <v>2.8896496173983084</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>75</v>
       </c>
@@ -17811,7 +17799,7 @@
         <v>0.10068465565847766</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>70</v>
       </c>
@@ -17834,7 +17822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>69</v>
       </c>
@@ -17857,12 +17845,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
         <v>0</v>
       </c>
@@ -17882,7 +17870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>76</v>
       </c>
@@ -17905,7 +17893,7 @@
         <v>81.655255739025364</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>77</v>
       </c>
@@ -17928,7 +17916,7 @@
         <v>12.857430527587596</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>78</v>
       </c>
@@ -17951,7 +17939,7 @@
         <v>0.84575110753121219</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>79</v>
       </c>
@@ -17974,7 +17962,7 @@
         <v>0.42287555376560609</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>80</v>
       </c>
@@ -17997,7 +17985,7 @@
         <v>0.17116391461941199</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>81</v>
       </c>
@@ -18020,7 +18008,7 @@
         <v>0.92629883205799446</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>82</v>
       </c>
@@ -18043,7 +18031,7 @@
         <v>0.5336286749899315</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>70</v>
       </c>
@@ -18066,7 +18054,7 @@
         <v>2.5875956504228754</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>69</v>
       </c>
@@ -18089,12 +18077,12 @@
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
         <v>0</v>
       </c>
@@ -18114,7 +18102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>83</v>
       </c>
@@ -18137,7 +18125,7 @@
         <v>32.551349174385827</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>84</v>
       </c>
@@ -18160,7 +18148,7 @@
         <v>7.6016915022150622</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>85</v>
       </c>
@@ -18183,7 +18171,7 @@
         <v>11.387434554973822</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>86</v>
       </c>
@@ -18206,7 +18194,7 @@
         <v>47.180829641562624</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>87</v>
       </c>
@@ -18229,7 +18217,7 @@
         <v>1.2786951268626663</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>69</v>
       </c>
@@ -18252,12 +18240,12 @@
         <v>100.00000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
         <v>0</v>
       </c>
@@ -18277,9 +18265,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B37" s="11">
         <v>14.393420150788211</v>
@@ -18300,9 +18288,9 @@
         <v>4.4301248489730165</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B38" s="11">
         <v>51.884852638793703</v>
@@ -18323,9 +18311,9 @@
         <v>85.370519532823195</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B39" s="11">
         <v>6.2371487320082251</v>
@@ -18346,9 +18334,9 @@
         <v>4.5811518324607325</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B40" s="11">
         <v>0.47978067169294036</v>
@@ -18369,7 +18357,7 @@
         <v>0.52356020942408377</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>88</v>
       </c>
@@ -18392,9 +18380,9 @@
         <v>3.2118405155054366</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B42" s="11">
         <v>0.3427004797806717</v>
@@ -18415,7 +18403,7 @@
         <v>0.48328634716069269</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>89</v>
       </c>
@@ -18438,7 +18426,7 @@
         <v>1.3995167136528395</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>69</v>
       </c>
@@ -18461,7 +18449,7 @@
         <v>100.00000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>22</v>
       </c>
@@ -18472,7 +18460,7 @@
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B48" s="11" t="s">
         <v>0</v>
       </c>
@@ -18492,7 +18480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>92</v>
       </c>
@@ -18515,7 +18503,7 @@
         <v>72.812405598630548</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>93</v>
       </c>
@@ -18538,7 +18526,7 @@
         <v>5.0448091833652207</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>69</v>
       </c>
@@ -18561,7 +18549,7 @@
         <v>10.613231295941999</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B52" s="11">
         <v>14.256339958875945</v>
       </c>
@@ -18581,7 +18569,7 @@
         <v>11.529553922062231</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>22</v>
       </c>
@@ -18604,7 +18592,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>23</v>
       </c>
@@ -18627,7 +18615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>98</v>
       </c>
@@ -18650,7 +18638,7 @@
         <v>72.812405598630548</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>90</v>
       </c>
@@ -18673,7 +18661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>91</v>
       </c>
@@ -18696,7 +18684,7 @@
         <v>0.13089005235602094</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>70</v>
       </c>
@@ -18719,7 +18707,7 @@
         <v>99.869109947643977</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>69</v>
       </c>
@@ -18742,12 +18730,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B64" s="11" t="s">
         <v>0</v>
       </c>
@@ -18767,7 +18755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>94</v>
       </c>
@@ -18790,7 +18778,7 @@
         <v>93.595166163141997</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>95</v>
       </c>
@@ -18813,7 +18801,7 @@
         <v>4.1993957703927487</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>96</v>
       </c>
@@ -18836,7 +18824,7 @@
         <v>0.74521651560926483</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>97</v>
       </c>
@@ -18859,7 +18847,7 @@
         <v>1.4602215508559919</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>69</v>
       </c>
@@ -18882,12 +18870,12 @@
         <v>100.00000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B73" s="11" t="s">
         <v>0</v>
       </c>
@@ -18907,9 +18895,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B74" s="11">
         <v>66.506189821182943</v>
@@ -18930,9 +18918,9 @@
         <v>78.523962948046716</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B75" s="11">
         <v>3.3700137551581841</v>
@@ -18953,9 +18941,9 @@
         <v>0.62424486508256138</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B76" s="11">
         <v>7.1526822558459422</v>
@@ -18976,9 +18964,9 @@
         <v>4.5710833668948858</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B77" s="11">
         <v>5.3645116918844566</v>
@@ -18999,9 +18987,9 @@
         <v>9.28312525171164</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B78" s="11">
         <v>9.9037138927097654</v>
@@ -19022,9 +19010,9 @@
         <v>1.8525976641159889</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B79" s="11">
         <v>3.6451169188445669</v>
@@ -19045,9 +19033,9 @@
         <v>2.4768425291985503</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B80" s="11">
         <v>4.0577716643741404</v>
@@ -19068,7 +19056,7 @@
         <v>2.6681433749496577</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>69</v>
       </c>
@@ -19091,12 +19079,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B85" s="11" t="s">
         <v>0</v>
       </c>
@@ -19116,7 +19104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>26</v>
       </c>
@@ -19136,7 +19124,7 @@
         <v>12.066881547139403</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
         <v>71</v>
       </c>
@@ -19156,7 +19144,7 @@
         <v>1.1153845904538264</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>27</v>
       </c>
@@ -19179,7 +19167,7 @@
         <v>84.35737308622079</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>28</v>
       </c>
@@ -19202,7 +19190,7 @@
         <v>55.091515825664885</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>29</v>
       </c>
@@ -19225,7 +19213,7 @@
         <v>7.1948998178506374</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
         <v>30</v>
       </c>
@@ -19248,7 +19236,7 @@
         <v>24.50384771162414</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
         <v>31</v>
       </c>
@@ -19271,7 +19259,7 @@
         <v>18.844246533751644</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
         <v>32</v>
       </c>
@@ -19294,7 +19282,7 @@
         <v>87.750781328762983</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>33</v>
       </c>
@@ -19317,7 +19305,7 @@
         <v>52.834765032844864</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
         <v>34</v>
       </c>
@@ -19340,7 +19328,7 @@
         <v>4.5007602635580328</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
         <v>35</v>
       </c>
@@ -19363,7 +19351,7 @@
         <v>37.131313131313135</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
         <v>36</v>
       </c>
@@ -19386,7 +19374,7 @@
         <v>47.216619604679302</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
         <v>37</v>
       </c>
@@ -19409,7 +19397,7 @@
         <v>13.1520420541852</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
         <v>38</v>
       </c>
@@ -19430,7 +19418,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19444,18 +19432,18 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="7" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -19475,7 +19463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -19498,7 +19486,7 @@
         <v>38.017412555368871</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -19521,7 +19509,7 @@
         <v>61.982587444631129</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -19544,12 +19532,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
@@ -19569,9 +19557,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B11" s="3">
         <v>7.8247847248221634</v>
@@ -19592,9 +19580,9 @@
         <v>1.7227983650305712</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B12" s="3">
         <v>4.0621490078622235</v>
@@ -19615,9 +19603,9 @@
         <v>4.6447995135628144</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B13" s="3">
         <v>28.996630475477346</v>
@@ -19638,9 +19626,9 @@
         <v>32.95611931223187</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B14" s="3">
         <v>38.618494945713216</v>
@@ -19661,9 +19649,9 @@
         <v>40.722224098908896</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B15" s="3">
         <v>5.6158742044178211</v>
@@ -19684,9 +19672,9 @@
         <v>5.9487214133702659</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B16" s="3">
         <v>14.114563833770125</v>
@@ -19707,9 +19695,9 @@
         <v>13.356754383001723</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B17" s="3">
         <v>0.76750280793710224</v>
@@ -19730,7 +19718,7 @@
         <v>0.64858291389386213</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -19753,12 +19741,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
@@ -19778,9 +19766,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B23" s="3">
         <v>8.1005586592178762</v>
@@ -19801,9 +19789,9 @@
         <v>0.37029200169276344</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -19824,9 +19812,9 @@
         <v>0.2010156580617859</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B25" s="3">
         <v>31.6340782122905</v>
@@ -19847,9 +19835,9 @@
         <v>33.273381294964025</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B26" s="3">
         <v>38.896648044692739</v>
@@ -19870,9 +19858,9 @@
         <v>41.007194244604314</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B27" s="3">
         <v>5.516759776536313</v>
@@ -19893,9 +19881,9 @@
         <v>7.5010579771476928</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B28" s="3">
         <v>14.175977653631286</v>
@@ -19916,9 +19904,9 @@
         <v>16.515023275497249</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B29" s="3">
         <v>1.6759776536312849</v>
@@ -19939,7 +19927,7 @@
         <v>1.1320355480321624</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -19962,12 +19950,12 @@
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>0</v>
       </c>
@@ -19987,9 +19975,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B35" s="3">
         <v>29.528535980148884</v>
@@ -20010,9 +19998,9 @@
         <v>43.439823186658629</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B36" s="3">
         <v>1.1166253101736971</v>
@@ -20033,9 +20021,9 @@
         <v>0.98452883263009849</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B37" s="3">
         <v>0</v>
@@ -20056,9 +20044,9 @@
         <v>0.12055455093429776</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B38" s="3">
         <v>0.24813895781637718</v>
@@ -20079,9 +20067,9 @@
         <v>0.76351215591721922</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B39" s="3">
         <v>0.99255583126550873</v>
@@ -20102,9 +20090,9 @@
         <v>1.4868394615230058</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B40" s="3">
         <v>0</v>
@@ -20125,9 +20113,9 @@
         <v>0.64295760498292143</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B41" s="3">
         <v>1.1166253101736971</v>
@@ -20148,9 +20136,9 @@
         <v>1.4064697609001406</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B42" s="3">
         <v>23.325062034739457</v>
@@ -20171,9 +20159,9 @@
         <v>12.999799075748442</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B43" s="3">
         <v>27.915632754342433</v>
@@ -20194,9 +20182,9 @@
         <v>22.121760096443641</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -20217,9 +20205,9 @@
         <v>0.24110910186859552</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B45" s="3">
         <v>0.49627791563275436</v>
@@ -20240,9 +20228,9 @@
         <v>0.14064697609001406</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B46" s="3">
         <v>8.4367245657568244</v>
@@ -20263,9 +20251,9 @@
         <v>6.6104078762306617</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B47" s="3">
         <v>1.240694789081886</v>
@@ -20286,9 +20274,9 @@
         <v>2.6120152702431185</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B48" s="3">
         <v>2.2332506203473943</v>
@@ -20309,9 +20297,9 @@
         <v>1.848503114325899</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B49" s="3">
         <v>3.3498759305210917</v>
@@ -20332,7 +20320,7 @@
         <v>4.5810729355033146</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>69</v>
       </c>
@@ -20355,12 +20343,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
         <v>0</v>
       </c>
@@ -20380,7 +20368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>43</v>
       </c>
@@ -20403,7 +20391,7 @@
         <v>61.982587444631129</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -20422,7 +20410,7 @@
         <v>17.3006993006993</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>45</v>
       </c>
@@ -20441,7 +20429,7 @@
         <v>11.51048951048951</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>46</v>
       </c>
@@ -20460,7 +20448,7 @@
         <v>7.6363636363636367</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>47</v>
       </c>
@@ -20479,7 +20467,7 @@
         <v>5.3286713286713283</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -20498,7 +20486,7 @@
         <v>11.692307692307692</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -20517,7 +20505,7 @@
         <v>4.335664335664335</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -20534,7 +20522,7 @@
         <v>12.88111888111888</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>51</v>
       </c>
@@ -20551,7 +20539,7 @@
         <v>2.6433566433566433</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>52</v>
       </c>
@@ -20580,22 +20568,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="7" width="9.140625" style="2"/>
+    <col min="2" max="7" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -20615,7 +20603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -20624,7 +20612,7 @@
         <v>0.55963780600184299</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -20633,27 +20621,27 @@
         <v>0.40750831363436002</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>210</v>
       </c>
       <c r="G6" s="10">
         <f>5.06430546095597/100</f>
         <v>5.0643054609559701E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>209</v>
       </c>
       <c r="G7" s="9">
         <f>57.4702512119877/100</f>
         <v>0.574702512119877</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G8" s="9">
         <f>15.2369886614047/100</f>
@@ -20667,6 +20655,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D97C45C73161C540AAAEC0BB7C04B14C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eaac3f66d04ba47d8e7bacccdec8bc8e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445" xmlns:ns4="72d74521-8c27-4702-99f8-167624e069b6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e42dd572579043e93d80e2ef1a203961" ns3:_="" ns4:_="">
     <xsd:import namespace="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445"/>
@@ -20889,22 +20892,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89BB6137-415D-4885-828C-A8FA44D39B10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="72d74521-8c27-4702-99f8-167624e069b6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C30E79AF-C9F7-44BC-84F3-9FDB2966CDCD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDE4FD95-407A-4586-99CF-839F5B5F5351}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20921,29 +20934,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C30E79AF-C9F7-44BC-84F3-9FDB2966CDCD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89BB6137-415D-4885-828C-A8FA44D39B10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="72d74521-8c27-4702-99f8-167624e069b6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data_management/management/2. harmonization/ENCOVI harmonization/Statistics_for presentation_TS.xlsx
+++ b/data_management/management/2. harmonization/ENCOVI harmonization/Statistics_for presentation_TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb563583\GitHub\VEN\data_management\management\2. harmonization\ENCOVI harmonization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD95CCA-66F4-4C6C-B557-7FDB49077A2A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C438B85-0B82-4AA3-83DF-419D2AC1BE96}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16890" yWindow="5430" windowWidth="10125" windowHeight="7500" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="180" windowWidth="16695" windowHeight="15045" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -834,7 +834,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1014,12 +1014,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1182,7 +1176,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1198,12 +1192,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="33" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1213,6 +1201,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1410,22 +1399,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>27.603534915959106</c:v>
+                  <c:v>24.665348862408106</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.956265769554246</c:v>
+                  <c:v>26.982912333153614</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.344145814025335</c:v>
+                  <c:v>27.87571260077868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.482401137028674</c:v>
+                  <c:v>27.874096549526449</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.078521939953813</c:v>
+                  <c:v>27.801226213746251</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.511137304681597</c:v>
+                  <c:v>18.635183622466304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1493,22 +1482,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>19.026165309305146</c:v>
+                  <c:v>18.096134691341117</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.620689655172416</c:v>
+                  <c:v>19.114931975715347</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.091597157862218</c:v>
+                  <c:v>18.868449071564385</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.088872167878939</c:v>
+                  <c:v>18.638043439943871</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.946882217090071</c:v>
+                  <c:v>18.519858605742183</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.745972738537795</c:v>
+                  <c:v>12.494001131621562</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1576,22 +1565,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>15.49124935019927</c:v>
+                  <c:v>16.035071748426581</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.164844407064759</c:v>
+                  <c:v>16.77094261156439</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.685820203892492</c:v>
+                  <c:v>16.824236722236883</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.140874508820332</c:v>
+                  <c:v>17.057793341665615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.669745958429562</c:v>
+                  <c:v>17.176797673598319</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.274095566234474</c:v>
+                  <c:v>12.104416248906102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1659,22 +1648,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>13.411887021313465</c:v>
+                  <c:v>14.476228424745866</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.137089991589571</c:v>
+                  <c:v>13.451294655318563</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.376428792091442</c:v>
+                  <c:v>11.207509681933919</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.206337262770671</c:v>
+                  <c:v>11.368474931440655</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.503464203233255</c:v>
+                  <c:v>11.541380919684869</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.026264091637199</c:v>
+                  <c:v>12.368450595968392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1742,22 +1731,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>11.349852711835037</c:v>
+                  <c:v>11.718145485312057</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.984020185029436</c:v>
+                  <c:v>10.533699646134984</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.654309545875812</c:v>
+                  <c:v>11.56969026448848</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.07348883872586</c:v>
+                  <c:v>11.139959690961494</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.200923787528868</c:v>
+                  <c:v>10.922089889804246</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.690784900414059</c:v>
+                  <c:v>14.149167947239928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1825,22 +1814,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.7506498007277767</c:v>
+                  <c:v>9.180864115563681</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2926829268292686</c:v>
+                  <c:v>7.191650248145959</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.7042014210688912</c:v>
+                  <c:v>9.4247330756469037</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0795084023074999</c:v>
+                  <c:v>8.9622388785855982</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3672055427251735</c:v>
+                  <c:v>9.0567794385226499</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.493940218212591</c:v>
+                  <c:v>15.820561456418266</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1910,22 +1899,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.3666608906601976</c:v>
+                  <c:v>5.8282066722025965</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8444070647603024</c:v>
+                  <c:v>5.9545685299671396</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1434970651838121</c:v>
+                  <c:v>4.2296685833507475</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.928517682468021</c:v>
+                  <c:v>4.959393167876315</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2332563510392607</c:v>
+                  <c:v>4.9818672589014863</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.257805180282286</c:v>
+                  <c:v>14.428218997379449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2264,7 +2253,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.55963780600184299</c:v>
+                  <c:v>0.53038170105261873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2317,7 +2306,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.40750831363436002</c:v>
+                  <c:v>0.47916414090405235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2370,7 +2359,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5.0643054609559701E-2</c:v>
+                  <c:v>6.0371096424121633E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2423,7 +2412,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.574702512119877</c:v>
+                  <c:v>0.59414993689435003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2476,7 +2465,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.15236988661404699</c:v>
+                  <c:v>0.12587036814168245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2889,22 +2878,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>50.753768844221106</c:v>
+                  <c:v>51.24968106826168</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.714886459209417</c:v>
+                  <c:v>50.26116009865391</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.474976830398518</c:v>
+                  <c:v>49.898861965872513</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.886213527297052</c:v>
+                  <c:v>49.898263392345257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.79445727482679</c:v>
+                  <c:v>49.757662293023607</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.873904370428583</c:v>
+                  <c:v>52.286149726395628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3033,22 +3022,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>49.246231155778894</c:v>
+                  <c:v>48.750318931738327</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49.285113540790583</c:v>
+                  <c:v>49.73883990134609</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.525023169601482</c:v>
+                  <c:v>50.101138034127487</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.113786472702955</c:v>
+                  <c:v>50.101736607654743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.20554272517321</c:v>
+                  <c:v>50.242337706976393</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.126095629571417</c:v>
+                  <c:v>47.713850273604372</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3402,22 +3391,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.767457979552937</c:v>
+                  <c:v>1.7107851019325202</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3624894869638351</c:v>
+                  <c:v>1.0202098841264515</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3824528884769849</c:v>
+                  <c:v>1.1580967214917468</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5508736727698353</c:v>
+                  <c:v>1.1243745220507901</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8337182448036953</c:v>
+                  <c:v>1.4629277750317127</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3189167951159071</c:v>
+                  <c:v>13.705213624621045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3485,22 +3474,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.6243285392479638</c:v>
+                  <c:v>6.6916157609071503</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.930193439865433</c:v>
+                  <c:v>6.3190526647243592</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.927710843373494</c:v>
+                  <c:v>6.6985375609790054</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2401973079173985</c:v>
+                  <c:v>6.6142412034120026</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.1570438799076221</c:v>
+                  <c:v>7.6022525444624813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.207604195001057</c:v>
+                  <c:v>21.824982969984944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3568,22 +3557,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>17.882516028417953</c:v>
+                  <c:v>17.683280514893791</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.207737594617324</c:v>
+                  <c:v>16.709943119746455</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.91380908248378</c:v>
+                  <c:v>17.313905823831021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.738650614497116</c:v>
+                  <c:v>15.794356200107638</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.852193995381061</c:v>
+                  <c:v>15.84586260075783</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.727173814489074</c:v>
+                  <c:v>22.096465569720813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3651,22 +3640,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>22.665049384855308</c:v>
+                  <c:v>24.338334375003207</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.885618166526491</c:v>
+                  <c:v>25.755221184340311</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.663886314488725</c:v>
+                  <c:v>24.69143891566981</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.927765237020317</c:v>
+                  <c:v>25.177922141222641</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.339491916859121</c:v>
+                  <c:v>22.240101208574416</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.897210384743254</c:v>
+                  <c:v>19.647040166956252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3734,22 +3723,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>18.88754115404609</c:v>
+                  <c:v>18.816017462843107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.073170731707318</c:v>
+                  <c:v>15.93308098601501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.925857275254867</c:v>
+                  <c:v>19.830415807815754</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.52503971239863</c:v>
+                  <c:v>20.330933337371786</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.399538106235568</c:v>
+                  <c:v>19.786521271389578</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.731253966814762</c:v>
+                  <c:v>11.096013385860276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3817,22 +3806,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>11.228556575983365</c:v>
+                  <c:v>11.090769884580727</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.423044575273337</c:v>
+                  <c:v>12.886952150213299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.372567191844301</c:v>
+                  <c:v>12.466831456033171</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.167795334838225</c:v>
+                  <c:v>13.348847023291915</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.995381062355658</c:v>
+                  <c:v>14.621182298676258</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.55399401577659</c:v>
+                  <c:v>6.0553693247539933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3902,22 +3891,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>19.944550337896377</c:v>
+                  <c:v>19.669196899839495</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.117746005046257</c:v>
+                  <c:v>21.375540010834115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.813716404077848</c:v>
+                  <c:v>17.840773714179488</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.849678120558483</c:v>
+                  <c:v>17.609325572543224</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.422632794457275</c:v>
+                  <c:v>18.441152301107728</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.563846828059358</c:v>
+                  <c:v>5.5749149581026769</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4325,22 +4314,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.8382453735435229</c:v>
+                  <c:v>3.8856660431492989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9486486486486485</c:v>
+                  <c:v>3.9632025842256589</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9332605644784033</c:v>
+                  <c:v>3.9103123070933896</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9192817586843431</c:v>
+                  <c:v>3.943626669122644</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8738755278134751</c:v>
+                  <c:v>3.8829897851820281</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2756745871929116</c:v>
+                  <c:v>2.4341129091664726</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4656,22 +4645,22 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>35.092529129540786</c:v>
+                  <c:v>50.756790417672327</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.013513513513509</c:v>
+                  <c:v>53.505546087416832</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.695150475596442</c:v>
+                  <c:v>51.655228439427212</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.076019466353415</c:v>
+                  <c:v>48.763052612336544</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.255186341105194</c:v>
+                  <c:v>47.485526777263708</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.440998791784132</c:v>
+                  <c:v>37.384475359893074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4739,22 +4728,22 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>52.296093214530501</c:v>
+                  <c:v>43.073970922986184</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.135135135135137</c:v>
+                  <c:v>40.077757443477857</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.015905192577577</c:v>
+                  <c:v>40.829038544306492</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.625440510152714</c:v>
+                  <c:v>47.059636989809093</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.689553882871309</c:v>
+                  <c:v>46.390455462968113</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.568666935159079</c:v>
+                  <c:v>59.920805524093758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4822,22 +4811,22 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>11.788896504455106</c:v>
+                  <c:v>5.8567949362959695</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.756756756756758</c:v>
+                  <c:v>5.2074023023163152</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.930297832527678</c:v>
+                  <c:v>7.3966639840948547</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.560161100855847</c:v>
+                  <c:v>3.9959029833147044</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.633008995777494</c:v>
+                  <c:v>6.0016293743106557</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8896496173983084</c:v>
+                  <c:v>2.5531091369873748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4905,22 +4894,22 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.68540095956134339</c:v>
+                  <c:v>0.192179830155081</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2162162162162162</c:v>
+                  <c:v>0.66393787792656633</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29627319507250893</c:v>
+                  <c:v>9.6648586751923476E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31884544386642055</c:v>
+                  <c:v>9.8587952594056269E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29373967321461353</c:v>
+                  <c:v>8.7755602089497536E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10068465565847766</c:v>
+                  <c:v>0.14160997902579359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4988,19 +4977,19 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.1370801919122687</c:v>
+                  <c:v>0.12026389289043972</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8783783783783784</c:v>
+                  <c:v>0.54535628886242726</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2373304225791362E-2</c:v>
+                  <c:v>2.2420445419515666E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41953347877160602</c:v>
+                  <c:v>8.2819461945608477E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12851110703139343</c:v>
+                  <c:v>3.4632783368027886E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -5360,25 +5349,25 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>14.393420150788211</c:v>
+                  <c:v>24.631136057075352</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.884852638793703</c:v>
+                  <c:v>54.758262197945484</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2371487320082251</c:v>
+                  <c:v>8.7662484370897591</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47978067169294036</c:v>
+                  <c:v>0.47234767001716682</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.154215215901303</c:v>
+                  <c:v>9.486632975914155</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3427004797806717</c:v>
+                  <c:v>0.33391706573490804</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5078821110349554</c:v>
+                  <c:v>1.5514555962231684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5449,25 +5438,25 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>14.063556457065584</c:v>
+                  <c:v>23.664068145345212</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.467883705206219</c:v>
+                  <c:v>53.681071597346467</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1528059499661936</c:v>
+                  <c:v>9.5890766286446638</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54090601757944556</c:v>
+                  <c:v>0.6455528659094395</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.828262339418529</c:v>
+                  <c:v>11.631517789131681</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27045300878972278</c:v>
+                  <c:v>0.21054457821488701</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.67613252197430695</c:v>
+                  <c:v>0.57816839540765053</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5538,25 +5527,25 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>14.985186340246376</c:v>
+                  <c:v>21.27741085937722</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.44706065803836</c:v>
+                  <c:v>51.553907167252021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.2820832683611423</c:v>
+                  <c:v>11.545136030035795</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24949321690316545</c:v>
+                  <c:v>0.22500669235517701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.164977389677219</c:v>
+                  <c:v>13.175298045550802</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12474660845158272</c:v>
+                  <c:v>4.0154131062070435E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7464525183221582</c:v>
+                  <c:v>2.1830870743669144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5627,25 +5616,25 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>14.398388991441516</c:v>
+                  <c:v>18.726450177849038</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.9572075851653</c:v>
+                  <c:v>61.755828410912919</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3799295183755662</c:v>
+                  <c:v>6.5981923448861943</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28528276556469206</c:v>
+                  <c:v>0.41563229554337805</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.893606309783522</c:v>
+                  <c:v>8.2898443943015749</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0344017452592718E-2</c:v>
+                  <c:v>4.1737659760625941E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.035240812216815</c:v>
+                  <c:v>4.1723147167462766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5716,25 +5705,25 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10.868367908940701</c:v>
+                  <c:v>16.942582743594549</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49.421700018358727</c:v>
+                  <c:v>64.091966992472891</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.71819350100973</c:v>
+                  <c:v>7.2068996520935817</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29373967321461353</c:v>
+                  <c:v>0.29422080012299234</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.333945290985863</c:v>
+                  <c:v>7.9858284242769901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.1793647879566731E-2</c:v>
+                  <c:v>3.3534637244586656E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.272259959610794</c:v>
+                  <c:v>3.4449667501944061</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5805,25 +5794,25 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.4301248489730165</c:v>
+                  <c:v>4.6276261775124299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85.370519532823195</c:v>
+                  <c:v>83.455556173511411</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5811518324607325</c:v>
+                  <c:v>6.4146662307625686</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52356020942408377</c:v>
+                  <c:v>0.84159702157048477</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2118405155054366</c:v>
+                  <c:v>2.5695094892025949</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.48328634716069269</c:v>
+                  <c:v>0.5899810915317194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3995167136528395</c:v>
+                  <c:v>1.5010638159087928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6156,19 +6145,19 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>66.506189821182943</c:v>
+                  <c:v>70.05128141444068</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.140921409214087</c:v>
+                  <c:v>70.631046687297882</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68.861154446177849</c:v>
+                  <c:v>74.853126258203844</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.492938802958975</c:v>
+                  <c:v>75.297985950706419</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.106108138032852</c:v>
+                  <c:v>81.144556275995541</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>78.523962948046716</c:v>
@@ -6239,19 +6228,19 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.3700137551581841</c:v>
+                  <c:v>4.6545773917091813</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6070460704607044</c:v>
+                  <c:v>6.4857493328711797</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5741029641185649</c:v>
+                  <c:v>3.4727129901539833</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1183591123066576</c:v>
+                  <c:v>2.9709658661923393</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2363904779479609</c:v>
+                  <c:v>1.47720260683625</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.62424486508256138</c:v>
@@ -6322,19 +6311,19 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.1526822558459422</c:v>
+                  <c:v>8.6870850815433531</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9457994579945801</c:v>
+                  <c:v>5.7781275503427443</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0858034321372854</c:v>
+                  <c:v>6.3340409776754161</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9932750504371217</c:v>
+                  <c:v>7.2050806410418788</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3031924709355969</c:v>
+                  <c:v>4.8895987454497014</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4.5710833668948858</c:v>
@@ -6405,19 +6394,19 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.3645116918844566</c:v>
+                  <c:v>5.1754899226610691</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5230352303523031</c:v>
+                  <c:v>4.2458443396862986</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3681747269890794</c:v>
+                  <c:v>3.957116189757552</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2286482851378615</c:v>
+                  <c:v>5.8763245122317302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8163867872301163</c:v>
+                  <c:v>5.3942625858810631</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9.28312525171164</c:v>
@@ -6488,19 +6477,19 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9.9037138927097654</c:v>
+                  <c:v>3.3011692194199047</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8943089430894311</c:v>
+                  <c:v>1.9010454585165555</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.726989079563182</c:v>
+                  <c:v>5.5607893706939509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.762609280430397</c:v>
+                  <c:v>6.3043808353584847</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.880605277726517</c:v>
+                  <c:v>4.5435344690731538</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.8525976641159889</c:v>
@@ -6571,19 +6560,19 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.6451169188445669</c:v>
+                  <c:v>3.8008779813589149</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.888888888888889</c:v>
+                  <c:v>10.958186631285342</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6365054602184088</c:v>
+                  <c:v>4.2440500156263639</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63887020847343645</c:v>
+                  <c:v>0.57355936662722484</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97804022882450636</c:v>
+                  <c:v>0.99189263434856012</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.4768425291985503</c:v>
@@ -6656,19 +6645,19 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.0577716643741404</c:v>
+                  <c:v>4.3295189888668979</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7472698907956319</c:v>
+                  <c:v>1.5781641978888923</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.765299260255548</c:v>
+                  <c:v>1.7717028278419242</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6792766193024544</c:v>
+                  <c:v>1.5589526824157272</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.6681433749496577</c:v>
@@ -7004,19 +6993,19 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.8247847248221634</c:v>
+                  <c:v>6.0191767665381839</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4794520547945202</c:v>
+                  <c:v>4.3422521029929921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1170508565790653</c:v>
+                  <c:v>4.156376199727192</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1276518255485755</c:v>
+                  <c:v>4.3655815855614692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6747024257947878</c:v>
+                  <c:v>4.4656780403113823</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.7227983650305712</c:v>
@@ -7087,19 +7076,19 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.0621490078622235</c:v>
+                  <c:v>4.1980488347222114</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.920692141312184</c:v>
+                  <c:v>5.2824032116751454</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2022602924029062</c:v>
+                  <c:v>5.3029483574021485</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9348993899663114</c:v>
+                  <c:v>4.7993709852696051</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7310531866807297</c:v>
+                  <c:v>4.7706153523328449</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4.6447995135628144</c:v>
@@ -7170,19 +7159,19 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>28.996630475477346</c:v>
+                  <c:v>24.579319507905478</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.118240807498196</c:v>
+                  <c:v>23.948517456301605</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.500224235357429</c:v>
+                  <c:v>23.342338495257039</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.909860693799505</c:v>
+                  <c:v>24.802890861869137</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.460549445030381</c:v>
+                  <c:v>25.298796747588369</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>32.95611931223187</c:v>
@@ -7253,19 +7242,19 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>38.618494945713216</c:v>
+                  <c:v>38.600614295445737</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.527757750540736</c:v>
+                  <c:v>38.124292308090482</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.456632881872814</c:v>
+                  <c:v>39.74559467264644</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.360830374214693</c:v>
+                  <c:v>39.680255426765626</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.75636582793431</c:v>
+                  <c:v>41.14169359207024</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>40.722224098908896</c:v>
@@ -7336,19 +7325,19 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.6158742044178211</c:v>
+                  <c:v>7.7254830204997864</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0922855082912761</c:v>
+                  <c:v>7.6556402474011742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8838460848506591</c:v>
+                  <c:v>6.0552692781820774</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4356733133023765</c:v>
+                  <c:v>7.1650998393893088</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2935563256491385</c:v>
+                  <c:v>7.2161256373038345</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5.9487214133702659</c:v>
@@ -7419,19 +7408,19 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>14.114563833770125</c:v>
+                  <c:v>17.746323885736278</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.23071377072819</c:v>
+                  <c:v>19.818854590245554</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.32872903399408</c:v>
+                  <c:v>20.67456896289254</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.639260675589549</c:v>
+                  <c:v>18.454684835836275</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.531314348852394</c:v>
+                  <c:v>16.381060384656884</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>13.356754383001723</c:v>
@@ -7504,19 +7493,19 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.76750280793710224</c:v>
+                  <c:v>1.1310336891523221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63085796683489548</c:v>
+                  <c:v>0.82804008329304002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5112566149430442</c:v>
+                  <c:v>0.72290403389256419</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59182372757898571</c:v>
+                  <c:v>0.7321164653085821</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55245844005825917</c:v>
+                  <c:v>0.72603024573644215</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.64858291389386213</c:v>
@@ -7872,22 +7861,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.1005586592178762</c:v>
+                  <c:v>6.2688551942568473</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5921864290610008</c:v>
+                  <c:v>4.1371002461880506</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1287740996726079</c:v>
+                  <c:v>3.2774023825136509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0407331975560083</c:v>
+                  <c:v>3.5049078875611537</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9523453560082222</c:v>
+                  <c:v>3.5461633166987854</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.37029200169276344</c:v>
+                  <c:v>0.48200909803415598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7958,19 +7947,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1370801919122687</c:v>
+                  <c:v>0.14643102049919327</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10913059294288831</c:v>
+                  <c:v>0.10928887374453496</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.091649694501018E-2</c:v>
+                  <c:v>2.4039673105750212E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3440478415249495E-2</c:v>
+                  <c:v>8.198954972127466E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2010156580617859</c:v>
+                  <c:v>0.2314466610404875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8038,22 +8027,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>31.6340782122905</c:v>
+                  <c:v>26.786381929955372</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.294722412611382</c:v>
+                  <c:v>25.012588181938888</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.555474718079303</c:v>
+                  <c:v>22.150027293863282</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.955872369314324</c:v>
+                  <c:v>25.164993139207546</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.003550738179779</c:v>
+                  <c:v>25.205421064620399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.273381294964025</c:v>
+                  <c:v>35.036012405714715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8121,22 +8110,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>38.896648044692739</c:v>
+                  <c:v>38.312599782117758</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.01507882111035</c:v>
+                  <c:v>40.556104492256544</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.016733357584577</c:v>
+                  <c:v>44.21712790784153</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.703326544467075</c:v>
+                  <c:v>43.756678866777172</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.851429639319754</c:v>
+                  <c:v>44.359812124167981</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.007194244604314</c:v>
+                  <c:v>39.558066831606141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8204,22 +8193,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.516759776536313</c:v>
+                  <c:v>8.1310876492568589</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.5113091158327627</c:v>
+                  <c:v>8.6485264642096151</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.9476173153874132</c:v>
+                  <c:v>7.5346131392609221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0095044127630679</c:v>
+                  <c:v>9.1052173169459589</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0923191926742666</c:v>
+                  <c:v>8.5172147310080373</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.5010579771476928</c:v>
+                  <c:v>7.1318179040900835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8287,22 +8276,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>14.175977653631286</c:v>
+                  <c:v>18.234208371921124</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.941740918437285</c:v>
+                  <c:v>19.229453816604558</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.33284830847581</c:v>
+                  <c:v>21.305772769555055</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.11948404616429</c:v>
+                  <c:v>16.990909662362931</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.035133619884133</c:v>
+                  <c:v>16.954480218117077</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.515023275497249</c:v>
+                  <c:v>16.032108714074823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8372,22 +8361,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.6759776536312849</c:v>
+                  <c:v>2.2668670724920443</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5078821110349554</c:v>
+                  <c:v>2.2697957783031475</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90942160785740267</c:v>
+                  <c:v>1.4057676332210307</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1201629327902241</c:v>
+                  <c:v>1.4532534540394861</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97178097551859455</c:v>
+                  <c:v>1.3349189956664465</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1320355480321624</c:v>
+                  <c:v>1.5285383854395889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15109,8 +15098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68:G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15149,22 +15138,22 @@
         <v>154</v>
       </c>
       <c r="B4" s="3">
-        <v>50.753768844221106</v>
+        <v>51.24968106826168</v>
       </c>
       <c r="C4" s="3">
-        <v>50.714886459209417</v>
+        <v>50.26116009865391</v>
       </c>
       <c r="D4" s="3">
-        <v>50.474976830398518</v>
+        <v>49.898861965872513</v>
       </c>
       <c r="E4" s="3">
-        <v>50.886213527297052</v>
+        <v>49.898263392345257</v>
       </c>
       <c r="F4" s="3">
-        <v>50.79445727482679</v>
+        <v>49.757662293023607</v>
       </c>
       <c r="G4" s="3">
-        <v>51.873904370428583</v>
+        <v>52.286149726395628</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -15172,22 +15161,22 @@
         <v>155</v>
       </c>
       <c r="B5" s="3">
-        <v>49.246231155778894</v>
+        <v>48.750318931738327</v>
       </c>
       <c r="C5" s="3">
-        <v>49.285113540790583</v>
+        <v>49.73883990134609</v>
       </c>
       <c r="D5" s="3">
-        <v>49.525023169601482</v>
+        <v>50.101138034127487</v>
       </c>
       <c r="E5" s="3">
-        <v>49.113786472702955</v>
+        <v>50.101736607654743</v>
       </c>
       <c r="F5" s="3">
-        <v>49.20554272517321</v>
+        <v>50.242337706976393</v>
       </c>
       <c r="G5" s="3">
-        <v>48.126095629571417</v>
+        <v>47.713850273604372</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -15243,22 +15232,22 @@
         <v>108</v>
       </c>
       <c r="B11" s="3">
-        <v>27.603534915959106</v>
+        <v>24.665348862408106</v>
       </c>
       <c r="C11" s="3">
-        <v>27.956265769554246</v>
+        <v>26.982912333153614</v>
       </c>
       <c r="D11" s="3">
-        <v>28.344145814025335</v>
+        <v>27.87571260077868</v>
       </c>
       <c r="E11" s="3">
-        <v>30.482401137028674</v>
+        <v>27.874096549526449</v>
       </c>
       <c r="F11" s="3">
-        <v>30.078521939953813</v>
+        <v>27.801226213746251</v>
       </c>
       <c r="G11" s="3">
-        <v>24.511137304681597</v>
+        <v>18.635183622466304</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -15266,22 +15255,22 @@
         <v>109</v>
       </c>
       <c r="B12" s="3">
-        <v>19.026165309305146</v>
+        <v>18.096134691341117</v>
       </c>
       <c r="C12" s="3">
-        <v>18.620689655172416</v>
+        <v>19.114931975715347</v>
       </c>
       <c r="D12" s="3">
-        <v>18.091597157862218</v>
+        <v>18.868449071564385</v>
       </c>
       <c r="E12" s="3">
-        <v>17.088872167878939</v>
+        <v>18.638043439943871</v>
       </c>
       <c r="F12" s="3">
-        <v>16.946882217090071</v>
+        <v>18.519858605742183</v>
       </c>
       <c r="G12" s="3">
-        <v>14.745972738537795</v>
+        <v>12.494001131621562</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -15289,22 +15278,22 @@
         <v>110</v>
       </c>
       <c r="B13" s="3">
-        <v>15.49124935019927</v>
+        <v>16.035071748426581</v>
       </c>
       <c r="C13" s="3">
-        <v>16.164844407064759</v>
+        <v>16.77094261156439</v>
       </c>
       <c r="D13" s="3">
-        <v>15.685820203892492</v>
+        <v>16.824236722236883</v>
       </c>
       <c r="E13" s="3">
-        <v>15.140874508820332</v>
+        <v>17.057793341665615</v>
       </c>
       <c r="F13" s="3">
-        <v>14.669745958429562</v>
+        <v>17.176797673598319</v>
       </c>
       <c r="G13" s="3">
-        <v>13.274095566234474</v>
+        <v>12.104416248906102</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -15312,22 +15301,22 @@
         <v>111</v>
       </c>
       <c r="B14" s="3">
-        <v>13.411887021313465</v>
+        <v>14.476228424745866</v>
       </c>
       <c r="C14" s="3">
-        <v>13.137089991589571</v>
+        <v>13.451294655318563</v>
       </c>
       <c r="D14" s="3">
-        <v>12.376428792091442</v>
+        <v>11.207509681933919</v>
       </c>
       <c r="E14" s="3">
-        <v>12.206337262770671</v>
+        <v>11.368474931440655</v>
       </c>
       <c r="F14" s="3">
-        <v>12.503464203233255</v>
+        <v>11.541380919684869</v>
       </c>
       <c r="G14" s="3">
-        <v>13.026264091637199</v>
+        <v>12.368450595968392</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -15335,22 +15324,22 @@
         <v>112</v>
       </c>
       <c r="B15" s="3">
-        <v>11.349852711835037</v>
+        <v>11.718145485312057</v>
       </c>
       <c r="C15" s="3">
-        <v>10.984020185029436</v>
+        <v>10.533699646134984</v>
       </c>
       <c r="D15" s="3">
-        <v>11.654309545875812</v>
+        <v>11.56969026448848</v>
       </c>
       <c r="E15" s="3">
-        <v>11.07348883872586</v>
+        <v>11.139959690961494</v>
       </c>
       <c r="F15" s="3">
-        <v>11.200923787528868</v>
+        <v>10.922089889804246</v>
       </c>
       <c r="G15" s="3">
-        <v>12.690784900414059</v>
+        <v>14.149167947239928</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -15358,22 +15347,22 @@
         <v>113</v>
       </c>
       <c r="B16" s="3">
-        <v>8.7506498007277767</v>
+        <v>9.180864115563681</v>
       </c>
       <c r="C16" s="3">
-        <v>8.2926829268292686</v>
+        <v>7.191650248145959</v>
       </c>
       <c r="D16" s="3">
-        <v>9.7042014210688912</v>
+        <v>9.4247330756469037</v>
       </c>
       <c r="E16" s="3">
-        <v>9.0795084023074999</v>
+        <v>8.9622388785855982</v>
       </c>
       <c r="F16" s="3">
-        <v>9.3672055427251735</v>
+        <v>9.0567794385226499</v>
       </c>
       <c r="G16" s="3">
-        <v>11.493940218212591</v>
+        <v>15.820561456418266</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -15381,22 +15370,22 @@
         <v>114</v>
       </c>
       <c r="B17" s="3">
-        <v>4.3666608906601976</v>
+        <v>5.8282066722025965</v>
       </c>
       <c r="C17" s="3">
-        <v>4.8444070647603024</v>
+        <v>5.9545685299671396</v>
       </c>
       <c r="D17" s="3">
-        <v>4.1434970651838121</v>
+        <v>4.2296685833507475</v>
       </c>
       <c r="E17" s="3">
-        <v>4.928517682468021</v>
+        <v>4.959393167876315</v>
       </c>
       <c r="F17" s="3">
-        <v>5.2332563510392607</v>
+        <v>4.9818672589014863</v>
       </c>
       <c r="G17" s="3">
-        <v>10.257805180282286</v>
+        <v>14.428218997379449</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -15404,22 +15393,22 @@
         <v>69</v>
       </c>
       <c r="B18" s="3">
+        <v>100.00000000000001</v>
+      </c>
+      <c r="C18" s="3">
+        <v>99.999999999999986</v>
+      </c>
+      <c r="D18" s="3">
         <v>100</v>
       </c>
-      <c r="C18" s="3">
-        <v>100.00000000000001</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="E18" s="3">
         <v>99.999999999999986</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>99.999999999999986</v>
-      </c>
-      <c r="G18" s="3">
-        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -15452,22 +15441,22 @@
         <v>115</v>
       </c>
       <c r="B23" s="3">
-        <v>24.105545617173522</v>
+        <v>26.52724804152588</v>
       </c>
       <c r="C23" s="3">
-        <v>25.336225596529282</v>
+        <v>27.8925241632354</v>
       </c>
       <c r="D23" s="3">
-        <v>21.659796923695588</v>
+        <v>23.764409934043286</v>
       </c>
       <c r="E23" s="3">
-        <v>19.035660472124562</v>
+        <v>20.986555550005523</v>
       </c>
       <c r="F23" s="3">
-        <v>19.766017395565356</v>
+        <v>21.810793536133442</v>
       </c>
       <c r="G23" s="3">
-        <v>21.759747102212856</v>
+        <v>20.984657857289903</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -15475,22 +15464,22 @@
         <v>116</v>
       </c>
       <c r="B24" s="3">
-        <v>36.203041144901611</v>
+        <v>36.806228284985458</v>
       </c>
       <c r="C24" s="3">
-        <v>36.963123644251624</v>
+        <v>39.435111451933786</v>
       </c>
       <c r="D24" s="3">
-        <v>36.63918769478235</v>
+        <v>40.502701935435773</v>
       </c>
       <c r="E24" s="3">
-        <v>36.207377643841731</v>
+        <v>39.511048092403655</v>
       </c>
       <c r="F24" s="3">
-        <v>36.714443219404629</v>
+        <v>40.022207032448691</v>
       </c>
       <c r="G24" s="3">
-        <v>36.869637212102965</v>
+        <v>34.409018615456816</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -15498,22 +15487,22 @@
         <v>117</v>
       </c>
       <c r="B25" s="3">
-        <v>26.095706618962431</v>
+        <v>22.651633685995446</v>
       </c>
       <c r="C25" s="3">
-        <v>24.793926247288503</v>
+        <v>20.266466931557208</v>
       </c>
       <c r="D25" s="3">
-        <v>29.360611239569717</v>
+        <v>24.090686484964547</v>
       </c>
       <c r="E25" s="3">
-        <v>31.6926167754897</v>
+        <v>27.129419040331126</v>
       </c>
       <c r="F25" s="3">
-        <v>30.436114173710642</v>
+        <v>25.859173762585463</v>
       </c>
       <c r="G25" s="3">
-        <v>25.199458076170405</v>
+        <v>21.911540168146164</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -15521,22 +15510,22 @@
         <v>118</v>
       </c>
       <c r="B26" s="3">
-        <v>9.704830053667262</v>
+        <v>9.3679380696269465</v>
       </c>
       <c r="C26" s="3">
-        <v>9.4577006507592198</v>
+        <v>8.8802211405957578</v>
       </c>
       <c r="D26" s="3">
-        <v>8.5855031667839548</v>
+        <v>8.0099855293277393</v>
       </c>
       <c r="E26" s="3">
-        <v>9.3252971706010381</v>
+        <v>8.9065430216675932</v>
       </c>
       <c r="F26" s="3">
-        <v>9.1449222099718241</v>
+        <v>8.8148930307455817</v>
       </c>
       <c r="G26" s="3">
-        <v>10.35300316122234</v>
+        <v>14.218391113897782</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -15544,22 +15533,22 @@
         <v>119</v>
       </c>
       <c r="B27" s="3">
-        <v>3.8908765652951698</v>
+        <v>4.6469519178662679</v>
       </c>
       <c r="C27" s="3">
-        <v>3.4490238611713666</v>
+        <v>3.5256763126778492</v>
       </c>
       <c r="D27" s="3">
-        <v>3.7549009751683924</v>
+        <v>3.6322161162286521</v>
       </c>
       <c r="E27" s="3">
-        <v>3.7390479379429657</v>
+        <v>3.4664342955920997</v>
       </c>
       <c r="F27" s="3">
-        <v>3.9385030013475437</v>
+        <v>3.4929326380868249</v>
       </c>
       <c r="G27" s="3">
-        <v>5.8181544482914349</v>
+        <v>8.4763922452093325</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -15567,16 +15556,16 @@
         <v>69</v>
       </c>
       <c r="B28" s="3">
-        <v>100.00000000000001</v>
+        <v>100</v>
       </c>
       <c r="C28" s="3">
-        <v>100</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="D28" s="3">
         <v>100</v>
       </c>
       <c r="E28" s="3">
-        <v>100</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="F28" s="3">
         <v>100</v>
@@ -15615,22 +15604,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>1.7699115044247788</v>
+        <v>1.7117342360560561</v>
       </c>
       <c r="C33" s="3">
-        <v>1.3627187079407805</v>
+        <v>1.020363979720496</v>
       </c>
       <c r="D33" s="3">
-        <v>1.3827732715334105</v>
+        <v>1.1584463324629719</v>
       </c>
       <c r="E33" s="3">
-        <v>1.5511978927122967</v>
+        <v>1.1247836232339601</v>
       </c>
       <c r="F33" s="3">
-        <v>1.8338029470183381</v>
+        <v>1.4629363890552753</v>
       </c>
       <c r="G33" s="3">
-        <v>4.3197001299839792</v>
+        <v>13.708295384054583</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -15638,22 +15627,22 @@
         <v>2</v>
       </c>
       <c r="B34" s="3">
-        <v>7.6349123720284577</v>
+        <v>6.6953282323643153</v>
       </c>
       <c r="C34" s="3">
-        <v>6.9313593539703895</v>
+        <v>6.3200071135973994</v>
       </c>
       <c r="D34" s="3">
-        <v>6.9293163383545773</v>
+        <v>6.7005597428736783</v>
       </c>
       <c r="E34" s="3">
-        <v>7.2417109169210185</v>
+        <v>6.6166477804457404</v>
       </c>
       <c r="F34" s="3">
-        <v>8.157420666081574</v>
+        <v>7.6022973081095087</v>
       </c>
       <c r="G34" s="3">
-        <v>13.209999697711677</v>
+        <v>21.829890543773775</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -15661,22 +15650,22 @@
         <v>3</v>
       </c>
       <c r="B35" s="3">
-        <v>17.907339927121292</v>
+        <v>17.693091101234408</v>
       </c>
       <c r="C35" s="3">
-        <v>17.210632570659492</v>
+        <v>16.712467040217675</v>
       </c>
       <c r="D35" s="3">
-        <v>16.917728852838934</v>
+        <v>17.319132616480061</v>
       </c>
       <c r="E35" s="3">
-        <v>15.741940878872768</v>
+        <v>15.800102941680089</v>
       </c>
       <c r="F35" s="3">
-        <v>15.852926232158529</v>
+        <v>15.845955904498551</v>
       </c>
       <c r="G35" s="3">
-        <v>20.730933164051873</v>
+        <v>22.101434189188005</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -15684,22 +15673,22 @@
         <v>4</v>
       </c>
       <c r="B36" s="3">
-        <v>22.69651223321187</v>
+        <v>24.351837148460405</v>
       </c>
       <c r="C36" s="3">
-        <v>23.889636608344549</v>
+        <v>25.759111331034529</v>
       </c>
       <c r="D36" s="3">
-        <v>23.669370413286984</v>
+        <v>24.698892868159312</v>
       </c>
       <c r="E36" s="3">
-        <v>23.932767487561151</v>
+        <v>25.187083072509974</v>
       </c>
       <c r="F36" s="3">
-        <v>21.340477620213406</v>
+        <v>22.240232162924396</v>
       </c>
       <c r="G36" s="3">
-        <v>22.901363320334937</v>
+        <v>19.651458007716265</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -15707,22 +15696,22 @@
         <v>5</v>
       </c>
       <c r="B37" s="3">
-        <v>18.913760194343222</v>
+        <v>18.826456485384782</v>
       </c>
       <c r="C37" s="3">
-        <v>17.076043068640644</v>
+        <v>15.935487566874205</v>
       </c>
       <c r="D37" s="3">
-        <v>19.930475086906142</v>
+        <v>19.836402294783298</v>
       </c>
       <c r="E37" s="3">
-        <v>20.529330601664089</v>
+        <v>20.338330702502493</v>
       </c>
       <c r="F37" s="3">
-        <v>19.400434200194006</v>
+        <v>19.786637778549647</v>
       </c>
       <c r="G37" s="3">
-        <v>15.734107191439195</v>
+        <v>11.098508439557584</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -15730,22 +15719,22 @@
         <v>6</v>
       </c>
       <c r="B38" s="3">
-        <v>11.244143675169182</v>
+        <v>11.096922982443134</v>
       </c>
       <c r="C38" s="3">
-        <v>13.425302826379543</v>
+        <v>12.888898634537661</v>
       </c>
       <c r="D38" s="3">
-        <v>12.375434530706837</v>
+        <v>12.470594994062903</v>
       </c>
       <c r="E38" s="3">
-        <v>13.170548145670443</v>
+        <v>13.353703971758893</v>
       </c>
       <c r="F38" s="3">
-        <v>13.99602753013996</v>
+        <v>14.621268391244177</v>
       </c>
       <c r="G38" s="3">
-        <v>10.555908225265258</v>
+        <v>6.0567309373527625</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -15753,22 +15742,22 @@
         <v>7</v>
       </c>
       <c r="B39" s="3">
-        <v>8.2595870206489668</v>
+        <v>7.908313861368887</v>
       </c>
       <c r="C39" s="3">
-        <v>9.0679676985195155</v>
+        <v>9.2245855311559577</v>
       </c>
       <c r="D39" s="3">
-        <v>7.7867902665121669</v>
+        <v>7.4009733795233608</v>
       </c>
       <c r="E39" s="3">
-        <v>7.755989463561483</v>
+        <v>7.6971216686380393</v>
       </c>
       <c r="F39" s="3">
-        <v>8.3421867060834227</v>
+        <v>8.290578485613894</v>
       </c>
       <c r="G39" s="3">
-        <v>5.1419243674616855</v>
+        <v>2.5788330768605294</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -15776,22 +15765,22 @@
         <v>8</v>
       </c>
       <c r="B40" s="3">
-        <v>4.5809474232170739</v>
+        <v>4.5284598071955875</v>
       </c>
       <c r="C40" s="3">
-        <v>3.768506056527591</v>
+        <v>3.7736510038659103</v>
       </c>
       <c r="D40" s="3">
-        <v>4.9439938200077247</v>
+        <v>4.9081664997126877</v>
       </c>
       <c r="E40" s="3">
-        <v>4.3483714512689717</v>
+        <v>4.7091490150202429</v>
       </c>
       <c r="F40" s="3">
-        <v>4.7300106240473001</v>
+        <v>5.0185010970487891</v>
       </c>
       <c r="G40" s="3">
-        <v>3.0712493576373143</v>
+        <v>1.3452669496570449</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -15799,22 +15788,22 @@
         <v>9</v>
       </c>
       <c r="B41" s="3">
-        <v>2.1863612701717856</v>
+        <v>2.0972947003728906</v>
       </c>
       <c r="C41" s="3">
-        <v>2.7254374158815611</v>
+        <v>3.537678128736963</v>
       </c>
       <c r="D41" s="3">
-        <v>2.190034762456547</v>
+        <v>1.9012991203193135</v>
       </c>
       <c r="E41" s="3">
-        <v>2.1825479784253878</v>
+        <v>2.1343753027556058</v>
       </c>
       <c r="F41" s="3">
-        <v>2.6606309760266065</v>
+        <v>2.1709698291667014</v>
       </c>
       <c r="G41" s="3">
-        <v>1.6323569420513286</v>
+        <v>0.61062154476550823</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -15822,22 +15811,22 @@
         <v>10</v>
       </c>
       <c r="B42" s="3">
-        <v>2.429290300190873</v>
+        <v>2.6342485703169287</v>
       </c>
       <c r="C42" s="3">
-        <v>1.8506056527590848</v>
+        <v>1.2510003496342272</v>
       </c>
       <c r="D42" s="3">
-        <v>1.3904982618771726</v>
+        <v>1.2955160219079382</v>
       </c>
       <c r="E42" s="3">
-        <v>1.6724505581803737</v>
+        <v>1.4371987641396813</v>
       </c>
       <c r="F42" s="3">
-        <v>1.5243198300152432</v>
+        <v>1.3658313314212085</v>
       </c>
       <c r="G42" s="3">
-        <v>1.299839787189021</v>
+        <v>0.64143515018456709</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -15845,22 +15834,22 @@
         <v>11</v>
       </c>
       <c r="B43" s="3">
-        <v>0.76349123720284573</v>
+        <v>0.70069591611775173</v>
       </c>
       <c r="C43" s="3">
-        <v>0.92530282637954242</v>
+        <v>1.0048642588167775</v>
       </c>
       <c r="D43" s="3">
-        <v>0.97721127848590195</v>
+        <v>1.0213572997403357</v>
       </c>
       <c r="E43" s="3">
-        <v>0.73587824559936454</v>
+        <v>0.58144035092342605</v>
       </c>
       <c r="F43" s="3">
-        <v>0.86378123700863785</v>
+        <v>0.52969314845870474</v>
       </c>
       <c r="G43" s="3">
-        <v>0.69828602521084615</v>
+        <v>0.1844408084024923</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -15868,22 +15857,22 @@
         <v>12</v>
       </c>
       <c r="B44" s="3">
-        <v>0.20822488287350338</v>
+        <v>0.26645305638459493</v>
       </c>
       <c r="C44" s="3">
-        <v>0.60565275908479144</v>
+        <v>0.60120159274256202</v>
       </c>
       <c r="D44" s="3">
-        <v>0.60254924681344157</v>
+        <v>0.46727878253926164</v>
       </c>
       <c r="E44" s="3">
-        <v>0.25086758372705609</v>
+        <v>0.16425346976225003</v>
       </c>
       <c r="F44" s="3">
-        <v>0.44343849600443441</v>
+        <v>0.34329829156625619</v>
       </c>
       <c r="G44" s="3">
-        <v>0.32647138841026574</v>
+        <v>0.11382880066626956</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -15891,22 +15880,22 @@
         <v>13</v>
       </c>
       <c r="B45" s="3">
-        <v>0.67673086933888604</v>
+        <v>0.48057676101120789</v>
       </c>
       <c r="C45" s="3">
-        <v>0.65612382234185729</v>
+        <v>1.3377700290429411</v>
       </c>
       <c r="D45" s="3">
-        <v>0.50212437234453455</v>
+        <v>0.55405595004379316</v>
       </c>
       <c r="E45" s="3">
-        <v>0.27177321570431073</v>
+        <v>0.26247836868882268</v>
       </c>
       <c r="F45" s="3">
-        <v>0.36029377800360296</v>
+        <v>0.36729510223551343</v>
       </c>
       <c r="G45" s="3">
-        <v>0.1571899277530909</v>
+        <v>2.9903904751855497E-2</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -15914,22 +15903,22 @@
         <v>14</v>
       </c>
       <c r="B46" s="3">
-        <v>0.72878709005726183</v>
+        <v>1.008587141289051</v>
       </c>
       <c r="C46" s="3">
-        <v>0.23553162853297444</v>
+        <v>0.43596600597159185</v>
       </c>
       <c r="D46" s="3">
-        <v>0.16222479721900346</v>
+        <v>9.8612029558591566E-2</v>
       </c>
       <c r="E46" s="3">
-        <v>0.3512146172178785</v>
+        <v>0.36717054111091718</v>
       </c>
       <c r="F46" s="3">
-        <v>0.19400434200194003</v>
+        <v>0.22736041348699479</v>
       </c>
       <c r="G46" s="3">
-        <v>0.12696109549288112</v>
+        <v>1.8626822472075096E-2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -15943,16 +15932,16 @@
         <v>0</v>
       </c>
       <c r="D47" s="3">
-        <v>0.11587485515643105</v>
+        <v>6.5132039792475005E-2</v>
       </c>
       <c r="E47" s="3">
-        <v>0.12543379186352804</v>
+        <v>7.1961148491018322E-3</v>
       </c>
       <c r="F47" s="3">
-        <v>6.9287265000692863E-2</v>
+        <v>1.1792160603118792E-2</v>
       </c>
       <c r="G47" s="3">
-        <v>4.5343248390314679E-2</v>
+        <v>2.3864614419364712E-2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -15963,19 +15952,19 @@
         <v>0</v>
       </c>
       <c r="C48" s="3">
-        <v>0.26917900403768508</v>
+        <v>0.19694743405110582</v>
       </c>
       <c r="D48" s="3">
-        <v>0.12359984550019312</v>
+        <v>0.10358002804001532</v>
       </c>
       <c r="E48" s="3">
-        <v>6.6898022327214951E-2</v>
+        <v>9.533499521892802E-2</v>
       </c>
       <c r="F48" s="3">
-        <v>0.14781283200147813</v>
+        <v>0.1061420405261766</v>
       </c>
       <c r="G48" s="3">
-        <v>4.8366131616335656E-2</v>
+        <v>6.8608261773219804E-3</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -15992,7 +15981,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>7.107914872266588E-2</v>
+        <v>0.12362931676183615</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -16018,7 +16007,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="3">
-        <v>8.3144718000831452E-2</v>
+        <v>9.2101654910874409E-3</v>
       </c>
       <c r="G50" s="3">
         <v>0</v>
@@ -16029,19 +16018,19 @@
         <v>69</v>
       </c>
       <c r="B51" s="3">
+        <v>99.999999999999986</v>
+      </c>
+      <c r="C51" s="3">
+        <v>99.999999999999986</v>
+      </c>
+      <c r="D51" s="3">
+        <v>100.00000000000001</v>
+      </c>
+      <c r="E51" s="3">
         <v>100</v>
       </c>
-      <c r="C51" s="3">
-        <v>99.999999999999972</v>
-      </c>
-      <c r="D51" s="3">
-        <v>100</v>
-      </c>
-      <c r="E51" s="3">
+      <c r="F51" s="3">
         <v>99.999999999999986</v>
-      </c>
-      <c r="F51" s="3">
-        <v>100.00000000000001</v>
       </c>
       <c r="G51" s="3">
         <v>100</v>
@@ -16077,22 +16066,22 @@
         <v>120</v>
       </c>
       <c r="B56" s="3">
-        <v>1.767457979552937</v>
+        <v>1.7107851019325202</v>
       </c>
       <c r="C56" s="3">
-        <v>1.3624894869638351</v>
+        <v>1.0202098841264515</v>
       </c>
       <c r="D56" s="3">
-        <v>1.3824528884769849</v>
+        <v>1.1580967214917468</v>
       </c>
       <c r="E56" s="3">
-        <v>1.5508736727698353</v>
+        <v>1.1243745220507901</v>
       </c>
       <c r="F56" s="3">
-        <v>1.8337182448036953</v>
+        <v>1.4629277750317127</v>
       </c>
       <c r="G56" s="3">
-        <v>4.3189167951159071</v>
+        <v>13.705213624621045</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -16100,22 +16089,22 @@
         <v>121</v>
       </c>
       <c r="B57" s="3">
-        <v>7.6243285392479638</v>
+        <v>6.6916157609071503</v>
       </c>
       <c r="C57" s="3">
-        <v>6.930193439865433</v>
+        <v>6.3190526647243592</v>
       </c>
       <c r="D57" s="3">
-        <v>6.927710843373494</v>
+        <v>6.6985375609790054</v>
       </c>
       <c r="E57" s="3">
-        <v>7.2401973079173985</v>
+        <v>6.6142412034120026</v>
       </c>
       <c r="F57" s="3">
-        <v>8.1570438799076221</v>
+        <v>7.6022525444624813</v>
       </c>
       <c r="G57" s="3">
-        <v>13.207604195001057</v>
+        <v>21.824982969984944</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -16123,22 +16112,22 @@
         <v>122</v>
       </c>
       <c r="B58" s="3">
-        <v>17.882516028417953</v>
+        <v>17.683280514893791</v>
       </c>
       <c r="C58" s="3">
-        <v>17.207737594617324</v>
+        <v>16.709943119746455</v>
       </c>
       <c r="D58" s="3">
-        <v>16.91380908248378</v>
+        <v>17.313905823831021</v>
       </c>
       <c r="E58" s="3">
-        <v>15.738650614497116</v>
+        <v>15.794356200107638</v>
       </c>
       <c r="F58" s="3">
-        <v>15.852193995381061</v>
+        <v>15.84586260075783</v>
       </c>
       <c r="G58" s="3">
-        <v>20.727173814489074</v>
+        <v>22.096465569720813</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -16146,22 +16135,22 @@
         <v>123</v>
       </c>
       <c r="B59" s="3">
-        <v>22.665049384855308</v>
+        <v>24.338334375003207</v>
       </c>
       <c r="C59" s="3">
-        <v>23.885618166526491</v>
+        <v>25.755221184340311</v>
       </c>
       <c r="D59" s="3">
-        <v>23.663886314488725</v>
+        <v>24.69143891566981</v>
       </c>
       <c r="E59" s="3">
-        <v>23.927765237020317</v>
+        <v>25.177922141222641</v>
       </c>
       <c r="F59" s="3">
-        <v>21.339491916859121</v>
+        <v>22.240101208574416</v>
       </c>
       <c r="G59" s="3">
-        <v>22.897210384743254</v>
+        <v>19.647040166956252</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -16169,22 +16158,22 @@
         <v>124</v>
       </c>
       <c r="B60" s="3">
-        <v>18.88754115404609</v>
+        <v>18.816017462843107</v>
       </c>
       <c r="C60" s="3">
-        <v>17.073170731707318</v>
+        <v>15.93308098601501</v>
       </c>
       <c r="D60" s="3">
-        <v>19.925857275254867</v>
+        <v>19.830415807815754</v>
       </c>
       <c r="E60" s="3">
-        <v>20.52503971239863</v>
+        <v>20.330933337371786</v>
       </c>
       <c r="F60" s="3">
-        <v>19.399538106235568</v>
+        <v>19.786521271389578</v>
       </c>
       <c r="G60" s="3">
-        <v>15.731253966814762</v>
+        <v>11.096013385860276</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -16192,22 +16181,22 @@
         <v>6</v>
       </c>
       <c r="B61" s="3">
-        <v>11.228556575983365</v>
+        <v>11.090769884580727</v>
       </c>
       <c r="C61" s="3">
-        <v>13.423044575273337</v>
+        <v>12.886952150213299</v>
       </c>
       <c r="D61" s="3">
-        <v>12.372567191844301</v>
+        <v>12.466831456033171</v>
       </c>
       <c r="E61" s="3">
-        <v>13.167795334838225</v>
+        <v>13.348847023291915</v>
       </c>
       <c r="F61" s="3">
-        <v>13.995381062355658</v>
+        <v>14.621182298676258</v>
       </c>
       <c r="G61" s="3">
-        <v>10.55399401577659</v>
+        <v>6.0553693247539933</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -16215,22 +16204,22 @@
         <v>125</v>
       </c>
       <c r="B62" s="3">
-        <v>19.944550337896377</v>
+        <v>19.669196899839495</v>
       </c>
       <c r="C62" s="3">
-        <v>20.117746005046257</v>
+        <v>21.375540010834115</v>
       </c>
       <c r="D62" s="3">
-        <v>18.813716404077848</v>
+        <v>17.840773714179488</v>
       </c>
       <c r="E62" s="3">
-        <v>17.849678120558483</v>
+        <v>17.609325572543224</v>
       </c>
       <c r="F62" s="3">
-        <v>19.422632794457275</v>
+        <v>18.441152301107728</v>
       </c>
       <c r="G62" s="3">
-        <v>12.563846828059358</v>
+        <v>5.5749149581026769</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -16241,7 +16230,7 @@
         <v>99.999999999999986</v>
       </c>
       <c r="C63" s="3">
-        <v>100</v>
+        <v>100.00000000000001</v>
       </c>
       <c r="D63" s="3">
         <v>100</v>
@@ -16253,7 +16242,7 @@
         <v>100</v>
       </c>
       <c r="G63" s="3">
-        <v>100</v>
+        <v>100.00000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -16286,22 +16275,22 @@
         <v>13</v>
       </c>
       <c r="B68" s="3">
-        <v>1.0918437285812199</v>
+        <v>1.010206556430693</v>
       </c>
       <c r="C68" s="3">
-        <v>1.1351351351351351</v>
+        <v>1.0437677858214449</v>
       </c>
       <c r="D68" s="3">
-        <v>1.1445501325432714</v>
+        <v>1.0218087740083843</v>
       </c>
       <c r="E68" s="3">
-        <v>1.2236952508810204</v>
+        <v>1.0883461086016419</v>
       </c>
       <c r="F68" s="3">
-        <v>1.1957040572792363</v>
+        <v>1.0819770199196843</v>
       </c>
       <c r="G68" s="3">
-        <v>0.81705598066854612</v>
+        <v>0.45683769624880199</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -16309,22 +16298,22 @@
         <v>14</v>
       </c>
       <c r="B69" s="3">
-        <v>2.6908841672378343</v>
+        <v>2.776580803595718</v>
       </c>
       <c r="C69" s="3">
-        <v>2.7324324324324323</v>
+        <v>2.7790283309255228</v>
       </c>
       <c r="D69" s="3">
-        <v>2.7261811944487757</v>
+        <v>2.7871130150896777</v>
       </c>
       <c r="E69" s="3">
-        <v>2.5928847122000334</v>
+        <v>2.7176146599518014</v>
       </c>
       <c r="F69" s="3">
-        <v>2.572425188176978</v>
+        <v>2.6523718240413015</v>
       </c>
       <c r="G69" s="3">
-        <v>2.1743858236004834</v>
+        <v>1.6400312979927323</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -16332,22 +16321,22 @@
         <v>15</v>
       </c>
       <c r="B70" s="3">
-        <v>2.8636052090472925</v>
+        <v>3.0039985208423823</v>
       </c>
       <c r="C70" s="3">
-        <v>2.9263513513513515</v>
+        <v>3.0351085951744419</v>
       </c>
       <c r="D70" s="3">
-        <v>2.8934975830344611</v>
+        <v>2.9806063850838873</v>
       </c>
       <c r="E70" s="3">
-        <v>2.7907367007887229</v>
+        <v>2.9466006343677744</v>
       </c>
       <c r="F70" s="3">
-        <v>2.7806131815678357</v>
+        <v>2.8861259532423107</v>
       </c>
       <c r="G70" s="3">
-        <v>2.5164115988723319</v>
+        <v>1.9937482485120261</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -16355,22 +16344,22 @@
         <v>16</v>
       </c>
       <c r="B71" s="3">
-        <v>0.17272104180945852</v>
+        <v>0.22741771724666429</v>
       </c>
       <c r="C71" s="3">
-        <v>0.19391891891891891</v>
+        <v>0.25608026424891905</v>
       </c>
       <c r="D71" s="3">
-        <v>0.16731638858568532</v>
+        <v>0.19349336999420982</v>
       </c>
       <c r="E71" s="3">
-        <v>0.19785198858868938</v>
+        <v>0.22898597441597279</v>
       </c>
       <c r="F71" s="3">
-        <v>0.20818799339085736</v>
+        <v>0.23375412920100946</v>
       </c>
       <c r="G71" s="3">
-        <v>0.34202577527184858</v>
+        <v>0.3537169505192938</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -16378,22 +16367,22 @@
         <v>17</v>
       </c>
       <c r="B72" s="3">
-        <v>3.8382453735435229</v>
+        <v>3.8856660431492989</v>
       </c>
       <c r="C72" s="3">
-        <v>3.9486486486486485</v>
+        <v>3.9632025842256589</v>
       </c>
       <c r="D72" s="3">
-        <v>3.9332605644784033</v>
+        <v>3.9103123070933896</v>
       </c>
       <c r="E72" s="3">
-        <v>3.9192817586843431</v>
+        <v>3.943626669122644</v>
       </c>
       <c r="F72" s="3">
-        <v>3.8738755278134751</v>
+        <v>3.8829897851820281</v>
       </c>
       <c r="G72" s="3">
-        <v>3.2756745871929116</v>
+        <v>2.4341129091664726</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -16783,7 +16772,7 @@
       <c r="L24" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M24" s="11" t="s">
+      <c r="M24" s="9" t="s">
         <v>131</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -16824,7 +16813,7 @@
       <c r="L25" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M25" s="11"/>
+      <c r="M25" s="9"/>
       <c r="P25" t="s">
         <v>181</v>
       </c>
@@ -16862,7 +16851,7 @@
       <c r="L26" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M26" s="11" t="s">
+      <c r="M26" s="9" t="s">
         <v>131</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -16889,7 +16878,7 @@
       <c r="I27" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="9" t="s">
         <v>131</v>
       </c>
       <c r="K27" s="2" t="s">
@@ -16898,7 +16887,7 @@
       <c r="L27" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M27" s="11" t="s">
+      <c r="M27" s="9" t="s">
         <v>131</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -16945,7 +16934,7 @@
       <c r="L28" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="M28" s="9" t="s">
         <v>131</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -16988,7 +16977,7 @@
       <c r="L29" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M29" s="11" t="s">
+      <c r="M29" s="9" t="s">
         <v>131</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -17023,7 +17012,7 @@
       <c r="L30" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M30" s="11" t="s">
+      <c r="M30" s="9" t="s">
         <v>131</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -17066,7 +17055,7 @@
       <c r="L31" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M31" s="11" t="s">
+      <c r="M31" s="9" t="s">
         <v>131</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -17107,7 +17096,7 @@
       <c r="L32" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M32" s="11" t="s">
+      <c r="M32" s="9" t="s">
         <v>131</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -17149,7 +17138,7 @@
       <c r="L33" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M33" s="11" t="s">
+      <c r="M33" s="9" t="s">
         <v>131</v>
       </c>
       <c r="P33" t="s">
@@ -17184,7 +17173,7 @@
       <c r="I34" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="9" t="s">
         <v>131</v>
       </c>
       <c r="K34" s="2" t="s">
@@ -17193,7 +17182,7 @@
       <c r="L34" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M34" s="11" t="s">
+      <c r="M34" s="9" t="s">
         <v>131</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -17238,7 +17227,7 @@
       <c r="L35" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M35" s="11" t="s">
+      <c r="M35" s="9" t="s">
         <v>131</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -17285,7 +17274,7 @@
       <c r="L36" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M36" s="11" t="s">
+      <c r="M36" s="9" t="s">
         <v>131</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -17332,7 +17321,7 @@
       <c r="L37" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M37" s="11" t="s">
+      <c r="M37" s="9" t="s">
         <v>131</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -17380,7 +17369,7 @@
       <c r="L38" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M38" s="11" t="s">
+      <c r="M38" s="9" t="s">
         <v>131</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -17404,17 +17393,17 @@
         <v>173</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="11"/>
+      <c r="J39" s="9"/>
       <c r="K39" s="2" t="s">
         <v>131</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M39" s="11" t="s">
+      <c r="M39" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="N39" s="11" t="s">
+      <c r="N39" s="9" t="s">
         <v>131</v>
       </c>
       <c r="P39" t="s">
@@ -17435,11 +17424,11 @@
         <v>202</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="11"/>
+      <c r="J40" s="9"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11" t="s">
+      <c r="M40" s="9"/>
+      <c r="N40" s="9" t="s">
         <v>131</v>
       </c>
       <c r="Q40" s="8"/>
@@ -17460,7 +17449,7 @@
       <c r="L41" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M41" s="11" t="s">
+      <c r="M41" s="9" t="s">
         <v>131</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -17496,7 +17485,7 @@
       <c r="L42" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M42" s="11" t="s">
+      <c r="M42" s="9" t="s">
         <v>131</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -17522,7 +17511,7 @@
       <c r="I43" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="J43" s="11" t="s">
+      <c r="J43" s="9" t="s">
         <v>131</v>
       </c>
       <c r="K43" s="2" t="s">
@@ -17531,7 +17520,7 @@
       <c r="L43" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M43" s="11" t="s">
+      <c r="M43" s="9" t="s">
         <v>131</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -17562,7 +17551,7 @@
       <c r="L44" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M44" s="11" t="s">
+      <c r="M44" s="9" t="s">
         <v>131</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -17591,7 +17580,7 @@
       <c r="L45" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M45" s="11" t="s">
+      <c r="M45" s="9" t="s">
         <v>131</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -17626,7 +17615,7 @@
       <c r="L46" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M46" s="11" t="s">
+      <c r="M46" s="9" t="s">
         <v>131</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -17657,7 +17646,7 @@
       <c r="L47" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M47" s="11" t="s">
+      <c r="M47" s="9" t="s">
         <v>131</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -17683,14 +17672,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" style="8" customWidth="1"/>
-    <col min="2" max="7" width="9.140625" style="11"/>
+    <col min="2" max="7" width="9.140625" style="9"/>
     <col min="8" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
@@ -17700,137 +17689,137 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="11">
-        <v>35.092529129540786</v>
-      </c>
-      <c r="C4" s="11">
-        <v>36.013513513513509</v>
-      </c>
-      <c r="D4" s="11">
-        <v>34.695150475596442</v>
-      </c>
-      <c r="E4" s="11">
-        <v>33.076019466353415</v>
-      </c>
-      <c r="F4" s="11">
-        <v>30.255186341105194</v>
-      </c>
-      <c r="G4" s="11">
-        <v>35.440998791784132</v>
+      <c r="B4" s="9">
+        <v>50.756790417672327</v>
+      </c>
+      <c r="C4" s="9">
+        <v>53.505546087416832</v>
+      </c>
+      <c r="D4" s="9">
+        <v>51.655228439427212</v>
+      </c>
+      <c r="E4" s="9">
+        <v>48.763052612336544</v>
+      </c>
+      <c r="F4" s="9">
+        <v>47.485526777263708</v>
+      </c>
+      <c r="G4" s="9">
+        <v>37.384475359893074</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="11">
-        <v>52.296093214530501</v>
-      </c>
-      <c r="C5" s="11">
-        <v>50.135135135135137</v>
-      </c>
-      <c r="D5" s="11">
-        <v>46.015905192577577</v>
-      </c>
-      <c r="E5" s="11">
-        <v>47.625440510152714</v>
-      </c>
-      <c r="F5" s="11">
-        <v>52.689553882871309</v>
-      </c>
-      <c r="G5" s="11">
-        <v>61.568666935159079</v>
+      <c r="B5" s="9">
+        <v>43.073970922986184</v>
+      </c>
+      <c r="C5" s="9">
+        <v>40.077757443477857</v>
+      </c>
+      <c r="D5" s="9">
+        <v>40.829038544306492</v>
+      </c>
+      <c r="E5" s="9">
+        <v>47.059636989809093</v>
+      </c>
+      <c r="F5" s="9">
+        <v>46.390455462968113</v>
+      </c>
+      <c r="G5" s="9">
+        <v>59.920805524093758</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="11">
-        <v>11.788896504455106</v>
-      </c>
-      <c r="C6" s="11">
-        <v>11.756756756756758</v>
-      </c>
-      <c r="D6" s="11">
-        <v>18.930297832527678</v>
-      </c>
-      <c r="E6" s="11">
-        <v>18.560161100855847</v>
-      </c>
-      <c r="F6" s="11">
-        <v>16.633008995777494</v>
-      </c>
-      <c r="G6" s="11">
-        <v>2.8896496173983084</v>
+      <c r="B6" s="9">
+        <v>5.8567949362959695</v>
+      </c>
+      <c r="C6" s="9">
+        <v>5.2074023023163152</v>
+      </c>
+      <c r="D6" s="9">
+        <v>7.3966639840948547</v>
+      </c>
+      <c r="E6" s="9">
+        <v>3.9959029833147044</v>
+      </c>
+      <c r="F6" s="9">
+        <v>6.0016293743106557</v>
+      </c>
+      <c r="G6" s="9">
+        <v>2.5531091369873748</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="11">
-        <v>0.68540095956134339</v>
-      </c>
-      <c r="C7" s="11">
-        <v>1.2162162162162162</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0.29627319507250893</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0.31884544386642055</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0.29373967321461353</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0.10068465565847766</v>
+      <c r="B7" s="9">
+        <v>0.192179830155081</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.66393787792656633</v>
+      </c>
+      <c r="D7" s="9">
+        <v>9.6648586751923476E-2</v>
+      </c>
+      <c r="E7" s="9">
+        <v>9.8587952594056269E-2</v>
+      </c>
+      <c r="F7" s="9">
+        <v>8.7755602089497536E-2</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.14160997902579359</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="11">
-        <v>0.1370801919122687</v>
-      </c>
-      <c r="C8" s="11">
-        <v>0.8783783783783784</v>
-      </c>
-      <c r="D8" s="11">
-        <v>6.2373304225791362E-2</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0.41953347877160602</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0.12851110703139343</v>
-      </c>
-      <c r="G8" s="11">
+      <c r="B8" s="9">
+        <v>0.12026389289043972</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.54535628886242726</v>
+      </c>
+      <c r="D8" s="9">
+        <v>2.2420445419515666E-2</v>
+      </c>
+      <c r="E8" s="9">
+        <v>8.2819461945608477E-2</v>
+      </c>
+      <c r="F8" s="9">
+        <v>3.4632783368027886E-2</v>
+      </c>
+      <c r="G8" s="9">
         <v>0</v>
       </c>
     </row>
@@ -17838,23 +17827,23 @@
       <c r="A9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="11">
-        <v>100.00000000000001</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="9">
+        <v>100</v>
+      </c>
+      <c r="C9" s="9">
         <v>99.999999999999986</v>
       </c>
-      <c r="D9" s="11">
-        <v>100.00000000000001</v>
-      </c>
-      <c r="E9" s="11">
-        <v>100.00000000000001</v>
-      </c>
-      <c r="F9" s="11">
-        <v>100.00000000000001</v>
-      </c>
-      <c r="G9" s="11">
+      <c r="D9" s="9">
         <v>100</v>
+      </c>
+      <c r="E9" s="9">
+        <v>100</v>
+      </c>
+      <c r="F9" s="9">
+        <v>100</v>
+      </c>
+      <c r="G9" s="9">
+        <v>99.999999999999986</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -17863,22 +17852,22 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -17886,207 +17875,207 @@
       <c r="A14" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="11">
-        <v>53.872515421521591</v>
-      </c>
-      <c r="C14" s="11">
-        <v>55.878378378378379</v>
-      </c>
-      <c r="D14" s="11">
-        <v>44.565725869327927</v>
-      </c>
-      <c r="E14" s="11">
-        <v>45.292834368182582</v>
-      </c>
-      <c r="F14" s="11">
-        <v>45.40113824123371</v>
-      </c>
-      <c r="G14" s="11">
-        <v>81.655255739025364</v>
+      <c r="B14" s="9">
+        <v>72.141828925435732</v>
+      </c>
+      <c r="C14" s="9">
+        <v>72.953323430044364</v>
+      </c>
+      <c r="D14" s="9">
+        <v>66.724301145004972</v>
+      </c>
+      <c r="E14" s="9">
+        <v>67.582508976178417</v>
+      </c>
+      <c r="F14" s="9">
+        <v>68.352334692975504</v>
+      </c>
+      <c r="G14" s="9">
+        <v>81.302029062954304</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="11">
-        <v>19.054146675805349</v>
-      </c>
-      <c r="C15" s="11">
-        <v>16.486486486486488</v>
-      </c>
-      <c r="D15" s="11">
-        <v>18.556058007172929</v>
-      </c>
-      <c r="E15" s="11">
-        <v>18.459473065950665</v>
-      </c>
-      <c r="F15" s="11">
-        <v>18.780980356159354</v>
-      </c>
-      <c r="G15" s="11">
-        <v>12.857430527587596</v>
+      <c r="B15" s="9">
+        <v>16.06178368123442</v>
+      </c>
+      <c r="C15" s="9">
+        <v>14.269917711263394</v>
+      </c>
+      <c r="D15" s="9">
+        <v>18.031625635703367</v>
+      </c>
+      <c r="E15" s="9">
+        <v>20.000920991489203</v>
+      </c>
+      <c r="F15" s="9">
+        <v>18.85729659760014</v>
+      </c>
+      <c r="G15" s="9">
+        <v>13.359656290991683</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="11">
-        <v>0.89102124742974653</v>
-      </c>
-      <c r="C16" s="11">
-        <v>0.33783783783783783</v>
-      </c>
-      <c r="D16" s="11">
-        <v>0.93559956338687045</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0.21815740896123509</v>
-      </c>
-      <c r="F16" s="11">
-        <v>0.97301266752340743</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0.84575110753121219</v>
+      <c r="B16" s="9">
+        <v>0.55762187077078895</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.21831821296454257</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.78532078689148477</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.22320089196630286</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.90827665869824392</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.81035592001218648</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="11">
-        <v>1.9876627827278959</v>
-      </c>
-      <c r="C17" s="11">
-        <v>0.74324324324324331</v>
-      </c>
-      <c r="D17" s="11">
-        <v>3.0718852331202244</v>
-      </c>
-      <c r="E17" s="11">
-        <v>2.869608994797785</v>
-      </c>
-      <c r="F17" s="11">
-        <v>1.9460253350468149</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0.42287555376560609</v>
+      <c r="B17" s="9">
+        <v>0.54104919279333541</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.28251861684190122</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.77929696351448996</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.57235434728914525</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.63369894735830656</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.40663457023573446</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="11">
-        <v>0.1370801919122687</v>
-      </c>
-      <c r="C18" s="11">
-        <v>6.7567567567567571E-2</v>
-      </c>
-      <c r="D18" s="11">
-        <v>9.3559956338687036E-2</v>
-      </c>
-      <c r="E18" s="11">
-        <v>0.21815740896123509</v>
-      </c>
-      <c r="F18" s="11">
-        <v>0.11015237745548008</v>
-      </c>
-      <c r="G18" s="11">
-        <v>0.17116391461941199</v>
+      <c r="B18" s="9">
+        <v>2.5991966335068194E-2</v>
+      </c>
+      <c r="C18" s="9">
+        <v>4.466115052337994E-2</v>
+      </c>
+      <c r="D18" s="9">
+        <v>3.6973327129358226E-2</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.14691209694412233</v>
+      </c>
+      <c r="F18" s="9">
+        <v>8.4845514862378263E-2</v>
+      </c>
+      <c r="G18" s="9">
+        <v>9.3801775259656717E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="11">
-        <v>2.1932830705962991</v>
-      </c>
-      <c r="C19" s="11">
-        <v>1.9594594594594597</v>
-      </c>
-      <c r="D19" s="11">
+      <c r="B19" s="9">
+        <v>1.5994215107827139</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1.0803407623114298</v>
+      </c>
+      <c r="D19" s="9">
         <v>0</v>
       </c>
-      <c r="E19" s="11">
-        <v>0.83906695754321203</v>
-      </c>
-      <c r="F19" s="11">
-        <v>0.95465393794749409</v>
-      </c>
-      <c r="G19" s="11">
-        <v>0.92629883205799446</v>
+      <c r="E19" s="9">
+        <v>0.66272314856290437</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.49931331550218566</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.89588885740256674</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="11">
-        <v>2.6730637422892394</v>
-      </c>
-      <c r="C20" s="11">
-        <v>2.0945945945945947</v>
-      </c>
-      <c r="D20" s="11">
-        <v>3.0874785591766725</v>
-      </c>
-      <c r="E20" s="11">
-        <v>3.8764893438496393</v>
-      </c>
-      <c r="F20" s="11">
-        <v>3.1393427574811823</v>
-      </c>
-      <c r="G20" s="11">
-        <v>0.5336286749899315</v>
+      <c r="B20" s="9">
+        <v>2.4291488375346653</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1.2652906347040944</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1.9226974568487352</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2.2691834852271571</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1.4692234253785688</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.56353650446698711</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="11">
-        <v>19.191226867717614</v>
-      </c>
-      <c r="C21" s="11">
-        <v>22.432432432432435</v>
-      </c>
-      <c r="D21" s="11">
-        <v>29.689692811476686</v>
-      </c>
-      <c r="E21" s="11">
-        <v>28.226212451753653</v>
-      </c>
-      <c r="F21" s="11">
-        <v>28.694694327152558</v>
-      </c>
-      <c r="G21" s="11">
-        <v>2.5875956504228754</v>
+      <c r="B21" s="9">
+        <v>6.6431540151132813</v>
+      </c>
+      <c r="C21" s="9">
+        <v>9.8856294813468839</v>
+      </c>
+      <c r="D21" s="9">
+        <v>11.719784684907591</v>
+      </c>
+      <c r="E21" s="9">
+        <v>8.5421960623427502</v>
+      </c>
+      <c r="F21" s="9">
+        <v>9.1950108476246761</v>
+      </c>
+      <c r="G21" s="9">
+        <v>2.5680970186768821</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="9">
         <v>100.00000000000001</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="9">
         <v>100</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="9">
         <v>100</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="9">
+        <v>100.00000000000001</v>
+      </c>
+      <c r="F22" s="9">
+        <v>100.00000000000001</v>
+      </c>
+      <c r="G22" s="9">
         <v>100</v>
-      </c>
-      <c r="F22" s="11">
-        <v>100.00000000000001</v>
-      </c>
-      <c r="G22" s="11">
-        <v>99.999999999999986</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -18095,22 +18084,22 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -18118,138 +18107,138 @@
       <c r="A27" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="11">
-        <v>31.871144619602465</v>
-      </c>
-      <c r="C27" s="11">
-        <v>28.986486486486484</v>
-      </c>
-      <c r="D27" s="11">
-        <v>35.64742589703588</v>
-      </c>
-      <c r="E27" s="11">
-        <v>31.481792247021311</v>
-      </c>
-      <c r="F27" s="11">
-        <v>29.006792729943086</v>
-      </c>
-      <c r="G27" s="11">
-        <v>32.551349174385827</v>
+      <c r="B27" s="9">
+        <v>46.504304483041132</v>
+      </c>
+      <c r="C27" s="9">
+        <v>44.869266950691937</v>
+      </c>
+      <c r="D27" s="9">
+        <v>51.242145704328813</v>
+      </c>
+      <c r="E27" s="9">
+        <v>44.84864342139965</v>
+      </c>
+      <c r="F27" s="9">
+        <v>43.387972966387807</v>
+      </c>
+      <c r="G27" s="9">
+        <v>36.79745653293611</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="11">
-        <v>9.8012337217272112</v>
-      </c>
-      <c r="C28" s="11">
-        <v>11.621621621621623</v>
-      </c>
-      <c r="D28" s="11">
-        <v>6.2090483619344772</v>
-      </c>
-      <c r="E28" s="11">
-        <v>6.1251887900654474</v>
-      </c>
-      <c r="F28" s="11">
-        <v>4.8650633376170376</v>
-      </c>
-      <c r="G28" s="11">
-        <v>7.6016915022150622</v>
+      <c r="B28" s="9">
+        <v>12.217383474510681</v>
+      </c>
+      <c r="C28" s="9">
+        <v>13.501524883572122</v>
+      </c>
+      <c r="D28" s="9">
+        <v>9.4065027008247473</v>
+      </c>
+      <c r="E28" s="9">
+        <v>9.7769386521987265</v>
+      </c>
+      <c r="F28" s="9">
+        <v>7.1382380657254174</v>
+      </c>
+      <c r="G28" s="9">
+        <v>7.2312801799095094</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="11">
-        <v>6.1000685400959567</v>
-      </c>
-      <c r="C29" s="11">
-        <v>4.8648648648648649</v>
-      </c>
-      <c r="D29" s="11">
-        <v>5.9594383775351014</v>
-      </c>
-      <c r="E29" s="11">
-        <v>4.3463668400738378</v>
-      </c>
-      <c r="F29" s="11">
-        <v>8.4082981457683132</v>
-      </c>
-      <c r="G29" s="11">
-        <v>11.387434554973822</v>
+      <c r="B29" s="9">
+        <v>5.4994811487105384</v>
+      </c>
+      <c r="C29" s="9">
+        <v>4.4846341271267178</v>
+      </c>
+      <c r="D29" s="9">
+        <v>6.3049603618142287</v>
+      </c>
+      <c r="E29" s="9">
+        <v>5.4557024025318892</v>
+      </c>
+      <c r="F29" s="9">
+        <v>9.8822032380211127</v>
+      </c>
+      <c r="G29" s="9">
+        <v>10.695432805981579</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="11">
-        <v>50.651130911583273</v>
-      </c>
-      <c r="C30" s="11">
-        <v>51.418918918918919</v>
-      </c>
-      <c r="D30" s="11">
-        <v>50.37441497659907</v>
-      </c>
-      <c r="E30" s="11">
-        <v>52.693404933713708</v>
-      </c>
-      <c r="F30" s="11">
-        <v>53.25867449972462</v>
-      </c>
-      <c r="G30" s="11">
-        <v>47.180829641562624</v>
+      <c r="B30" s="9">
+        <v>35.159608194491049</v>
+      </c>
+      <c r="C30" s="9">
+        <v>35.298348387579438</v>
+      </c>
+      <c r="D30" s="9">
+        <v>32.496696113999413</v>
+      </c>
+      <c r="E30" s="9">
+        <v>38.50063980999667</v>
+      </c>
+      <c r="F30" s="9">
+        <v>37.929761201262046</v>
+      </c>
+      <c r="G30" s="9">
+        <v>44.414213651664951</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="11">
-        <v>1.5764222069910898</v>
-      </c>
-      <c r="C31" s="11">
-        <v>3.1081081081081083</v>
-      </c>
-      <c r="D31" s="11">
-        <v>1.8096723868954758</v>
-      </c>
-      <c r="E31" s="11">
-        <v>5.3532471891256916</v>
-      </c>
-      <c r="F31" s="11">
-        <v>4.4611712869469429</v>
-      </c>
-      <c r="G31" s="11">
-        <v>1.2786951268626663</v>
+      <c r="B31" s="9">
+        <v>0.61922269924660189</v>
+      </c>
+      <c r="C31" s="9">
+        <v>1.8462256510297852</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0.54969511903280455</v>
+      </c>
+      <c r="E31" s="9">
+        <v>1.4180757138730622</v>
+      </c>
+      <c r="F31" s="9">
+        <v>1.6618245286036182</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0.86161682950784324</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="9">
+        <v>100.00000000000001</v>
+      </c>
+      <c r="C32" s="9">
+        <v>100</v>
+      </c>
+      <c r="D32" s="9">
+        <v>100</v>
+      </c>
+      <c r="E32" s="9">
+        <v>100</v>
+      </c>
+      <c r="F32" s="9">
+        <v>100</v>
+      </c>
+      <c r="G32" s="9">
         <v>99.999999999999986</v>
-      </c>
-      <c r="C32" s="11">
-        <v>100</v>
-      </c>
-      <c r="D32" s="11">
-        <v>100</v>
-      </c>
-      <c r="E32" s="11">
-        <v>100</v>
-      </c>
-      <c r="F32" s="11">
-        <v>100</v>
-      </c>
-      <c r="G32" s="11">
-        <v>100.00000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -18258,22 +18247,22 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -18281,214 +18270,214 @@
       <c r="A37" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B37" s="11">
-        <v>14.393420150788211</v>
-      </c>
-      <c r="C37" s="11">
-        <v>14.063556457065584</v>
-      </c>
-      <c r="D37" s="11">
-        <v>14.985186340246376</v>
-      </c>
-      <c r="E37" s="11">
-        <v>14.398388991441516</v>
-      </c>
-      <c r="F37" s="11">
-        <v>10.868367908940701</v>
-      </c>
-      <c r="G37" s="11">
-        <v>4.4301248489730165</v>
+      <c r="B37" s="9">
+        <v>24.631136057075352</v>
+      </c>
+      <c r="C37" s="9">
+        <v>23.664068145345212</v>
+      </c>
+      <c r="D37" s="9">
+        <v>21.27741085937722</v>
+      </c>
+      <c r="E37" s="9">
+        <v>18.726450177849038</v>
+      </c>
+      <c r="F37" s="9">
+        <v>16.942582743594549</v>
+      </c>
+      <c r="G37" s="9">
+        <v>4.6276261775124299</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B38" s="11">
-        <v>51.884852638793703</v>
-      </c>
-      <c r="C38" s="11">
-        <v>52.467883705206219</v>
-      </c>
-      <c r="D38" s="11">
-        <v>41.44706065803836</v>
-      </c>
-      <c r="E38" s="11">
-        <v>44.9572075851653</v>
-      </c>
-      <c r="F38" s="11">
-        <v>49.421700018358727</v>
-      </c>
-      <c r="G38" s="11">
-        <v>85.370519532823195</v>
+      <c r="B38" s="9">
+        <v>54.758262197945484</v>
+      </c>
+      <c r="C38" s="9">
+        <v>53.681071597346467</v>
+      </c>
+      <c r="D38" s="9">
+        <v>51.553907167252021</v>
+      </c>
+      <c r="E38" s="9">
+        <v>61.755828410912919</v>
+      </c>
+      <c r="F38" s="9">
+        <v>64.091966992472891</v>
+      </c>
+      <c r="G38" s="9">
+        <v>83.455556173511411</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B39" s="11">
-        <v>6.2371487320082251</v>
-      </c>
-      <c r="C39" s="11">
-        <v>6.1528059499661936</v>
-      </c>
-      <c r="D39" s="11">
-        <v>7.2820832683611423</v>
-      </c>
-      <c r="E39" s="11">
-        <v>4.3799295183755662</v>
-      </c>
-      <c r="F39" s="11">
-        <v>4.71819350100973</v>
-      </c>
-      <c r="G39" s="11">
-        <v>4.5811518324607325</v>
+      <c r="B39" s="9">
+        <v>8.7662484370897591</v>
+      </c>
+      <c r="C39" s="9">
+        <v>9.5890766286446638</v>
+      </c>
+      <c r="D39" s="9">
+        <v>11.545136030035795</v>
+      </c>
+      <c r="E39" s="9">
+        <v>6.5981923448861943</v>
+      </c>
+      <c r="F39" s="9">
+        <v>7.2068996520935817</v>
+      </c>
+      <c r="G39" s="9">
+        <v>6.4146662307625686</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B40" s="11">
-        <v>0.47978067169294036</v>
-      </c>
-      <c r="C40" s="11">
-        <v>0.54090601757944556</v>
-      </c>
-      <c r="D40" s="11">
-        <v>0.24949321690316545</v>
-      </c>
-      <c r="E40" s="11">
-        <v>0.28528276556469206</v>
-      </c>
-      <c r="F40" s="11">
-        <v>0.29373967321461353</v>
-      </c>
-      <c r="G40" s="11">
-        <v>0.52356020942408377</v>
+      <c r="B40" s="9">
+        <v>0.47234767001716682</v>
+      </c>
+      <c r="C40" s="9">
+        <v>0.6455528659094395</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0.22500669235517701</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0.41563229554337805</v>
+      </c>
+      <c r="F40" s="9">
+        <v>0.29422080012299234</v>
+      </c>
+      <c r="G40" s="9">
+        <v>0.84159702157048477</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="11">
-        <v>25.154215215901303</v>
-      </c>
-      <c r="C41" s="11">
-        <v>25.828262339418529</v>
-      </c>
-      <c r="D41" s="11">
-        <v>34.164977389677219</v>
-      </c>
-      <c r="E41" s="11">
-        <v>25.893606309783522</v>
-      </c>
-      <c r="F41" s="11">
-        <v>23.333945290985863</v>
-      </c>
-      <c r="G41" s="11">
-        <v>3.2118405155054366</v>
+      <c r="B41" s="9">
+        <v>9.486632975914155</v>
+      </c>
+      <c r="C41" s="9">
+        <v>11.631517789131681</v>
+      </c>
+      <c r="D41" s="9">
+        <v>13.175298045550802</v>
+      </c>
+      <c r="E41" s="9">
+        <v>8.2898443943015749</v>
+      </c>
+      <c r="F41" s="9">
+        <v>7.9858284242769901</v>
+      </c>
+      <c r="G41" s="9">
+        <v>2.5695094892025949</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B42" s="11">
-        <v>0.3427004797806717</v>
-      </c>
-      <c r="C42" s="11">
-        <v>0.27045300878972278</v>
-      </c>
-      <c r="D42" s="11">
-        <v>0.12474660845158272</v>
-      </c>
-      <c r="E42" s="11">
-        <v>5.0344017452592718E-2</v>
-      </c>
-      <c r="F42" s="11">
-        <v>9.1793647879566731E-2</v>
-      </c>
-      <c r="G42" s="11">
-        <v>0.48328634716069269</v>
+      <c r="B42" s="9">
+        <v>0.33391706573490804</v>
+      </c>
+      <c r="C42" s="9">
+        <v>0.21054457821488701</v>
+      </c>
+      <c r="D42" s="9">
+        <v>4.0154131062070435E-2</v>
+      </c>
+      <c r="E42" s="9">
+        <v>4.1737659760625941E-2</v>
+      </c>
+      <c r="F42" s="9">
+        <v>3.3534637244586656E-2</v>
+      </c>
+      <c r="G42" s="9">
+        <v>0.5899810915317194</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="11">
-        <v>1.5078821110349554</v>
-      </c>
-      <c r="C43" s="11">
-        <v>0.67613252197430695</v>
-      </c>
-      <c r="D43" s="11">
-        <v>1.7464525183221582</v>
-      </c>
-      <c r="E43" s="11">
-        <v>10.035240812216815</v>
-      </c>
-      <c r="F43" s="11">
-        <v>11.272259959610794</v>
-      </c>
-      <c r="G43" s="11">
-        <v>1.3995167136528395</v>
+      <c r="B43" s="9">
+        <v>1.5514555962231684</v>
+      </c>
+      <c r="C43" s="9">
+        <v>0.57816839540765053</v>
+      </c>
+      <c r="D43" s="9">
+        <v>2.1830870743669144</v>
+      </c>
+      <c r="E43" s="9">
+        <v>4.1723147167462766</v>
+      </c>
+      <c r="F43" s="9">
+        <v>3.4449667501944061</v>
+      </c>
+      <c r="G43" s="9">
+        <v>1.5010638159087928</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="9">
+        <v>99.999999999999986</v>
+      </c>
+      <c r="C44" s="9">
+        <v>100</v>
+      </c>
+      <c r="D44" s="9">
+        <v>100</v>
+      </c>
+      <c r="E44" s="9">
         <v>100.00000000000001</v>
       </c>
-      <c r="C44" s="11">
-        <v>100.00000000000001</v>
-      </c>
-      <c r="D44" s="11">
-        <v>100.00000000000001</v>
-      </c>
-      <c r="E44" s="11">
+      <c r="F44" s="9">
         <v>100</v>
       </c>
-      <c r="F44" s="11">
-        <v>100.00000000000001</v>
-      </c>
-      <c r="G44" s="11">
-        <v>100.00000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
+      <c r="G44" s="9">
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -18496,134 +18485,134 @@
       <c r="A49" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="11">
-        <v>75.325565455791647</v>
-      </c>
-      <c r="C49" s="11">
-        <v>68.513513513513516</v>
-      </c>
-      <c r="D49" s="11">
-        <v>71.314927468413671</v>
-      </c>
-      <c r="E49" s="11">
-        <v>56.368518207752984</v>
-      </c>
-      <c r="F49" s="11">
-        <v>59.77602349917386</v>
-      </c>
-      <c r="G49" s="11">
-        <v>72.812405598630548</v>
+      <c r="B49" s="9">
+        <v>83.600373451729183</v>
+      </c>
+      <c r="C49" s="9">
+        <v>79.556415024509789</v>
+      </c>
+      <c r="D49" s="9">
+        <v>83.917098150926535</v>
+      </c>
+      <c r="E49" s="9">
+        <v>72.019636654903096</v>
+      </c>
+      <c r="F49" s="9">
+        <v>71.980650665304964</v>
+      </c>
+      <c r="G49" s="9">
+        <v>77.057767696374498</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="11">
-        <v>5.3461274845784788</v>
-      </c>
-      <c r="C50" s="11">
-        <v>11.013513513513514</v>
-      </c>
-      <c r="D50" s="11">
-        <v>10.060832943378568</v>
-      </c>
-      <c r="E50" s="11">
-        <v>7.2831011914750805</v>
-      </c>
-      <c r="F50" s="11">
-        <v>9.087571140077106</v>
-      </c>
-      <c r="G50" s="11">
-        <v>5.0448091833652207</v>
+      <c r="B50" s="9">
+        <v>4.4895621769859249</v>
+      </c>
+      <c r="C50" s="9">
+        <v>6.6817303588704817</v>
+      </c>
+      <c r="D50" s="9">
+        <v>5.8945991243527738</v>
+      </c>
+      <c r="E50" s="9">
+        <v>5.63384448360984</v>
+      </c>
+      <c r="F50" s="9">
+        <v>5.9453082050046637</v>
+      </c>
+      <c r="G50" s="9">
+        <v>3.2157623027975895</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="11">
-        <v>5.0719671007539411</v>
-      </c>
-      <c r="C51" s="11">
-        <v>7.7027027027027035</v>
-      </c>
-      <c r="D51" s="11">
-        <v>5.3813757604117916</v>
-      </c>
-      <c r="E51" s="11">
-        <v>9.5485819768417528</v>
-      </c>
-      <c r="F51" s="11">
-        <v>8.334863227464659</v>
-      </c>
-      <c r="G51" s="11">
-        <v>10.613231295941999</v>
+      <c r="B51" s="9">
+        <v>3.7177470063459657</v>
+      </c>
+      <c r="C51" s="9">
+        <v>6.587760577693115</v>
+      </c>
+      <c r="D51" s="9">
+        <v>3.4294165326768558</v>
+      </c>
+      <c r="E51" s="9">
+        <v>5.215560848930882</v>
+      </c>
+      <c r="F51" s="9">
+        <v>6.9040584049015754</v>
+      </c>
+      <c r="G51" s="9">
+        <v>11.180754276781604</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="11">
-        <v>14.256339958875945</v>
-      </c>
-      <c r="C52" s="11">
-        <v>12.77027027027027</v>
-      </c>
-      <c r="D52" s="11">
-        <v>13.242863827795976</v>
-      </c>
-      <c r="E52" s="11">
-        <v>26.799798623930187</v>
-      </c>
-      <c r="F52" s="11">
-        <v>22.801542133284379</v>
-      </c>
-      <c r="G52" s="11">
-        <v>11.529553922062231</v>
+      <c r="B52" s="9">
+        <v>8.1923173649389316</v>
+      </c>
+      <c r="C52" s="9">
+        <v>7.1740940389266132</v>
+      </c>
+      <c r="D52" s="9">
+        <v>6.7588861920438355</v>
+      </c>
+      <c r="E52" s="9">
+        <v>17.130958012556182</v>
+      </c>
+      <c r="F52" s="9">
+        <v>15.169982724788797</v>
+      </c>
+      <c r="G52" s="9">
+        <v>8.5457157240463051</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53" s="9">
         <v>100</v>
       </c>
-      <c r="C53" s="11">
-        <v>100.00000000000001</v>
-      </c>
-      <c r="D53" s="11">
+      <c r="C53" s="9">
         <v>100</v>
       </c>
-      <c r="E53" s="11">
-        <v>100.00000000000001</v>
-      </c>
-      <c r="F53" s="11">
+      <c r="D53" s="9">
         <v>100</v>
       </c>
-      <c r="G53" s="11">
+      <c r="E53" s="9">
+        <v>99.999999999999986</v>
+      </c>
+      <c r="F53" s="9">
         <v>100</v>
+      </c>
+      <c r="G53" s="9">
+        <v>99.999999999999986</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="G55" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -18631,22 +18620,22 @@
       <c r="A56" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="11">
+      <c r="B56" s="9">
         <v>75.325565455791647</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="9">
         <v>68.513513513513516</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="9">
         <v>71.314927468413671</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="9">
         <v>56.368518207752984</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F56" s="9">
         <v>59.77602349917386</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G56" s="9">
         <v>72.812405598630548</v>
       </c>
     </row>
@@ -18654,22 +18643,22 @@
       <c r="A57" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G57" s="11" t="s">
+      <c r="G57" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -18677,22 +18666,22 @@
       <c r="A58" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B58" s="11">
+      <c r="B58" s="9">
         <v>0</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="9">
         <v>0</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="9">
         <v>1.2478552487911403</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E58" s="9">
         <v>1.9298540023493875</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="9">
         <v>1.655020228025009</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G58" s="9">
         <v>0.13089005235602094</v>
       </c>
     </row>
@@ -18700,22 +18689,22 @@
       <c r="A59" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="9">
         <v>100</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="9">
         <v>100</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="9">
         <v>98.75214475120886</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E59" s="9">
         <v>98.070145997650613</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F59" s="9">
         <v>98.344979771974991</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G59" s="9">
         <v>99.869109947643977</v>
       </c>
     </row>
@@ -18723,22 +18712,22 @@
       <c r="A60" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B60" s="11">
+      <c r="B60" s="9">
         <v>100</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="9">
         <v>100</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="9">
         <v>100</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E60" s="9">
         <v>100</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F60" s="9">
         <v>100</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G60" s="9">
         <v>100</v>
       </c>
     </row>
@@ -18748,22 +18737,22 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F64" s="11" t="s">
+      <c r="F64" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G64" s="11" t="s">
+      <c r="G64" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -18771,22 +18760,22 @@
       <c r="A65" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B65" s="11">
+      <c r="B65" s="9">
         <v>81.425633995887594</v>
       </c>
-      <c r="C65" s="11">
+      <c r="C65" s="9">
         <v>80.09478672985783</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D65" s="9">
         <v>84.71745238838588</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E65" s="9">
         <v>66.571572411478442</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F65" s="9">
         <v>70.270270270270274</v>
       </c>
-      <c r="G65" s="11">
+      <c r="G65" s="9">
         <v>93.595166163141997</v>
       </c>
     </row>
@@ -18794,22 +18783,22 @@
       <c r="A66" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B66" s="11">
+      <c r="B66" s="9">
         <v>7.4708704592186423</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C66" s="9">
         <v>7.786052809749493</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D66" s="9">
         <v>5.7758351545426159</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E66" s="9">
         <v>17.788219499916096</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F66" s="9">
         <v>15.480786909358338</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G66" s="9">
         <v>4.1993957703927487</v>
       </c>
     </row>
@@ -18817,22 +18806,22 @@
       <c r="A67" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B67" s="11">
+      <c r="B67" s="9">
         <v>3.289924605894448</v>
       </c>
-      <c r="C67" s="11">
+      <c r="C67" s="9">
         <v>3.1821259309410967</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D67" s="9">
         <v>9.5067124570714956</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E67" s="9">
         <v>5.4539352240308778</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F67" s="9">
         <v>5.773120058834345</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G67" s="9">
         <v>0.74521651560926483</v>
       </c>
     </row>
@@ -18840,22 +18829,22 @@
       <c r="A68" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B68" s="11">
+      <c r="B68" s="9">
         <v>7.8135709389993142</v>
       </c>
-      <c r="C68" s="11">
+      <c r="C68" s="9">
         <v>8.9370345294515907</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D68" s="9">
         <v>0</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E68" s="9">
         <v>10.186272864574592</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F68" s="9">
         <v>8.4758227615370476</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G68" s="9">
         <v>1.4602215508559919</v>
       </c>
     </row>
@@ -18863,22 +18852,22 @@
       <c r="A69" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="11">
+      <c r="B69" s="9">
         <v>100</v>
       </c>
-      <c r="C69" s="11">
+      <c r="C69" s="9">
         <v>100.00000000000001</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D69" s="9">
         <v>100</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E69" s="9">
         <v>100</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F69" s="9">
         <v>100.00000000000001</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G69" s="9">
         <v>100.00000000000001</v>
       </c>
     </row>
@@ -18888,22 +18877,22 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D73" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="E73" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F73" s="11" t="s">
+      <c r="F73" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G73" s="11" t="s">
+      <c r="G73" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -18911,22 +18900,22 @@
       <c r="A74" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B74" s="11">
-        <v>66.506189821182943</v>
-      </c>
-      <c r="C74" s="11">
-        <v>67.140921409214087</v>
-      </c>
-      <c r="D74" s="11">
-        <v>68.861154446177849</v>
-      </c>
-      <c r="E74" s="11">
-        <v>66.492938802958975</v>
-      </c>
-      <c r="F74" s="11">
-        <v>75.106108138032852</v>
-      </c>
-      <c r="G74" s="11">
+      <c r="B74" s="9">
+        <v>70.05128141444068</v>
+      </c>
+      <c r="C74" s="9">
+        <v>70.631046687297882</v>
+      </c>
+      <c r="D74" s="9">
+        <v>74.853126258203844</v>
+      </c>
+      <c r="E74" s="9">
+        <v>75.297985950706419</v>
+      </c>
+      <c r="F74" s="9">
+        <v>81.144556275995541</v>
+      </c>
+      <c r="G74" s="9">
         <v>78.523962948046716</v>
       </c>
     </row>
@@ -18934,22 +18923,22 @@
       <c r="A75" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B75" s="11">
-        <v>3.3700137551581841</v>
-      </c>
-      <c r="C75" s="11">
-        <v>4.6070460704607044</v>
-      </c>
-      <c r="D75" s="11">
-        <v>2.5741029641185649</v>
-      </c>
-      <c r="E75" s="11">
-        <v>2.1183591123066576</v>
-      </c>
-      <c r="F75" s="11">
-        <v>1.2363904779479609</v>
-      </c>
-      <c r="G75" s="11">
+      <c r="B75" s="9">
+        <v>4.6545773917091813</v>
+      </c>
+      <c r="C75" s="9">
+        <v>6.4857493328711797</v>
+      </c>
+      <c r="D75" s="9">
+        <v>3.4727129901539833</v>
+      </c>
+      <c r="E75" s="9">
+        <v>2.9709658661923393</v>
+      </c>
+      <c r="F75" s="9">
+        <v>1.47720260683625</v>
+      </c>
+      <c r="G75" s="9">
         <v>0.62424486508256138</v>
       </c>
     </row>
@@ -18957,22 +18946,22 @@
       <c r="A76" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B76" s="11">
-        <v>7.1526822558459422</v>
-      </c>
-      <c r="C76" s="11">
-        <v>4.9457994579945801</v>
-      </c>
-      <c r="D76" s="11">
-        <v>5.0858034321372854</v>
-      </c>
-      <c r="E76" s="11">
-        <v>4.9932750504371217</v>
-      </c>
-      <c r="F76" s="11">
-        <v>3.3031924709355969</v>
-      </c>
-      <c r="G76" s="11">
+      <c r="B76" s="9">
+        <v>8.6870850815433531</v>
+      </c>
+      <c r="C76" s="9">
+        <v>5.7781275503427443</v>
+      </c>
+      <c r="D76" s="9">
+        <v>6.3340409776754161</v>
+      </c>
+      <c r="E76" s="9">
+        <v>7.2050806410418788</v>
+      </c>
+      <c r="F76" s="9">
+        <v>4.8895987454497014</v>
+      </c>
+      <c r="G76" s="9">
         <v>4.5710833668948858</v>
       </c>
     </row>
@@ -18980,22 +18969,22 @@
       <c r="A77" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B77" s="11">
-        <v>5.3645116918844566</v>
-      </c>
-      <c r="C77" s="11">
-        <v>3.5230352303523031</v>
-      </c>
-      <c r="D77" s="11">
-        <v>4.3681747269890794</v>
-      </c>
-      <c r="E77" s="11">
-        <v>5.2286482851378615</v>
-      </c>
-      <c r="F77" s="11">
-        <v>4.8163867872301163</v>
-      </c>
-      <c r="G77" s="11">
+      <c r="B77" s="9">
+        <v>5.1754899226610691</v>
+      </c>
+      <c r="C77" s="9">
+        <v>4.2458443396862986</v>
+      </c>
+      <c r="D77" s="9">
+        <v>3.957116189757552</v>
+      </c>
+      <c r="E77" s="9">
+        <v>5.8763245122317302</v>
+      </c>
+      <c r="F77" s="9">
+        <v>5.3942625858810631</v>
+      </c>
+      <c r="G77" s="9">
         <v>9.28312525171164</v>
       </c>
     </row>
@@ -19003,22 +18992,22 @@
       <c r="A78" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B78" s="11">
-        <v>9.9037138927097654</v>
-      </c>
-      <c r="C78" s="11">
-        <v>5.8943089430894311</v>
-      </c>
-      <c r="D78" s="11">
-        <v>14.726989079563182</v>
-      </c>
-      <c r="E78" s="11">
-        <v>18.762609280430397</v>
-      </c>
-      <c r="F78" s="11">
-        <v>12.880605277726517</v>
-      </c>
-      <c r="G78" s="11">
+      <c r="B78" s="9">
+        <v>3.3011692194199047</v>
+      </c>
+      <c r="C78" s="9">
+        <v>1.9010454585165555</v>
+      </c>
+      <c r="D78" s="9">
+        <v>5.5607893706939509</v>
+      </c>
+      <c r="E78" s="9">
+        <v>6.3043808353584847</v>
+      </c>
+      <c r="F78" s="9">
+        <v>4.5435344690731538</v>
+      </c>
+      <c r="G78" s="9">
         <v>1.8525976641159889</v>
       </c>
     </row>
@@ -19026,22 +19015,22 @@
       <c r="A79" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B79" s="11">
-        <v>3.6451169188445669</v>
-      </c>
-      <c r="C79" s="11">
-        <v>13.888888888888889</v>
-      </c>
-      <c r="D79" s="11">
-        <v>2.6365054602184088</v>
-      </c>
-      <c r="E79" s="11">
-        <v>0.63887020847343645</v>
-      </c>
-      <c r="F79" s="11">
-        <v>0.97804022882450636</v>
-      </c>
-      <c r="G79" s="11">
+      <c r="B79" s="9">
+        <v>3.8008779813589149</v>
+      </c>
+      <c r="C79" s="9">
+        <v>10.958186631285342</v>
+      </c>
+      <c r="D79" s="9">
+        <v>4.2440500156263639</v>
+      </c>
+      <c r="E79" s="9">
+        <v>0.57355936662722484</v>
+      </c>
+      <c r="F79" s="9">
+        <v>0.99189263434856012</v>
+      </c>
+      <c r="G79" s="9">
         <v>2.4768425291985503</v>
       </c>
     </row>
@@ -19049,22 +19038,22 @@
       <c r="A80" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B80" s="11">
-        <v>4.0577716643741404</v>
-      </c>
-      <c r="C80" s="11">
+      <c r="B80" s="9">
+        <v>4.3295189888668979</v>
+      </c>
+      <c r="C80" s="9">
         <v>0</v>
       </c>
-      <c r="D80" s="11">
-        <v>1.7472698907956319</v>
-      </c>
-      <c r="E80" s="11">
-        <v>1.765299260255548</v>
-      </c>
-      <c r="F80" s="11">
-        <v>1.6792766193024544</v>
-      </c>
-      <c r="G80" s="11">
+      <c r="D80" s="9">
+        <v>1.5781641978888923</v>
+      </c>
+      <c r="E80" s="9">
+        <v>1.7717028278419242</v>
+      </c>
+      <c r="F80" s="9">
+        <v>1.5589526824157272</v>
+      </c>
+      <c r="G80" s="9">
         <v>2.6681433749496577</v>
       </c>
     </row>
@@ -19072,22 +19061,22 @@
       <c r="A81" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B81" s="11">
+      <c r="B81" s="9">
         <v>100</v>
       </c>
-      <c r="C81" s="11">
+      <c r="C81" s="9">
         <v>100</v>
       </c>
-      <c r="D81" s="11">
-        <v>100.00000000000001</v>
-      </c>
-      <c r="E81" s="11">
+      <c r="D81" s="9">
         <v>100</v>
       </c>
-      <c r="F81" s="11">
-        <v>100.00000000000001</v>
-      </c>
-      <c r="G81" s="11">
+      <c r="E81" s="9">
+        <v>100</v>
+      </c>
+      <c r="F81" s="9">
+        <v>99.999999999999986</v>
+      </c>
+      <c r="G81" s="9">
         <v>100</v>
       </c>
     </row>
@@ -19097,22 +19086,22 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="D85" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E85" s="11" t="s">
+      <c r="E85" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F85" s="11" t="s">
+      <c r="F85" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G85" s="11" t="s">
+      <c r="G85" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -19120,19 +19109,19 @@
       <c r="A86" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C86" s="11">
+      <c r="C86" s="9">
         <v>29.797297297297298</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D86" s="9">
         <v>27.207488299531978</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E86" s="9">
         <v>22.645324347093513</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F86" s="9">
         <v>19.724011039558416</v>
       </c>
-      <c r="G86" s="11">
+      <c r="G86" s="9">
         <v>12.066881547139403</v>
       </c>
     </row>
@@ -19140,19 +19129,19 @@
       <c r="A87" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C87" s="11">
+      <c r="C87" s="9">
         <v>0.36621620840820912</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D87" s="9">
         <v>0.3351013967113543</v>
       </c>
-      <c r="E87" s="11">
+      <c r="E87" s="9">
         <v>0.26891322067382462</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F87" s="9">
         <v>0.23495859647274236</v>
       </c>
-      <c r="G87" s="11">
+      <c r="G87" s="9">
         <v>1.1153845904538264</v>
       </c>
     </row>
@@ -19160,22 +19149,22 @@
       <c r="A88" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B88" s="11">
+      <c r="B88" s="9">
         <v>90.179806362378983</v>
       </c>
-      <c r="C88" s="11">
+      <c r="C88" s="9">
         <v>86.530612244897966</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D88" s="9">
         <v>85.576022478926006</v>
       </c>
-      <c r="E88" s="11">
+      <c r="E88" s="9">
         <v>79.055303412338205</v>
       </c>
-      <c r="F88" s="11">
+      <c r="F88" s="9">
         <v>79.162072767364947</v>
       </c>
-      <c r="G88" s="11">
+      <c r="G88" s="9">
         <v>84.35737308622079</v>
       </c>
     </row>
@@ -19183,22 +19172,22 @@
       <c r="A89" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B89" s="11">
+      <c r="B89" s="9">
         <v>78.215767634854771</v>
       </c>
-      <c r="C89" s="11">
+      <c r="C89" s="9">
         <v>72.987721691678033</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D89" s="9">
         <v>68.624082461346248</v>
       </c>
-      <c r="E89" s="11">
+      <c r="E89" s="9">
         <v>58.752312090129479</v>
       </c>
-      <c r="F89" s="11">
+      <c r="F89" s="9">
         <v>57.250505421797456</v>
       </c>
-      <c r="G89" s="11">
+      <c r="G89" s="9">
         <v>55.091515825664885</v>
       </c>
     </row>
@@ -19206,22 +19195,22 @@
       <c r="A90" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B90" s="11">
+      <c r="B90" s="9">
         <v>25.555555555555554</v>
       </c>
-      <c r="C90" s="11">
+      <c r="C90" s="9">
         <v>23.509252912954079</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D90" s="9">
         <v>15.040650406504067</v>
       </c>
-      <c r="E90" s="11">
+      <c r="E90" s="9">
         <v>11.326152810501515</v>
       </c>
-      <c r="F90" s="11">
+      <c r="F90" s="9">
         <v>8.0716660509789424</v>
       </c>
-      <c r="G90" s="11">
+      <c r="G90" s="9">
         <v>7.1948998178506374</v>
       </c>
     </row>
@@ -19229,22 +19218,22 @@
       <c r="A91" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B91" s="11">
+      <c r="B91" s="9">
         <v>44.760582928521856</v>
       </c>
-      <c r="C91" s="11">
+      <c r="C91" s="9">
         <v>44.368600682593858</v>
       </c>
-      <c r="D91" s="11">
+      <c r="D91" s="9">
         <v>41.165442899546946</v>
       </c>
-      <c r="E91" s="11">
+      <c r="E91" s="9">
         <v>33.49032800672834</v>
       </c>
-      <c r="F91" s="11">
+      <c r="F91" s="9">
         <v>32.139560642422005</v>
       </c>
-      <c r="G91" s="11">
+      <c r="G91" s="9">
         <v>24.50384771162414</v>
       </c>
     </row>
@@ -19252,22 +19241,22 @@
       <c r="A92" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B92" s="11">
+      <c r="B92" s="9">
         <v>37.491337491337489</v>
       </c>
-      <c r="C92" s="11">
+      <c r="C92" s="9">
         <v>36.244841815680878</v>
       </c>
-      <c r="D92" s="11">
+      <c r="D92" s="9">
         <v>33.698030634573307</v>
       </c>
-      <c r="E92" s="11">
+      <c r="E92" s="9">
         <v>27.47012287493688</v>
       </c>
-      <c r="F92" s="11">
+      <c r="F92" s="9">
         <v>26.576908889708594</v>
       </c>
-      <c r="G92" s="11">
+      <c r="G92" s="9">
         <v>18.844246533751644</v>
       </c>
     </row>
@@ -19275,22 +19264,22 @@
       <c r="A93" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B93" s="11">
+      <c r="B93" s="9">
         <v>93.00554016620498</v>
       </c>
-      <c r="C93" s="11">
+      <c r="C93" s="9">
         <v>93.037542662116053</v>
       </c>
-      <c r="D93" s="11">
+      <c r="D93" s="9">
         <v>91.693989071038246</v>
       </c>
-      <c r="E93" s="11">
+      <c r="E93" s="9">
         <v>88.18685935136952</v>
       </c>
-      <c r="F93" s="11">
+      <c r="F93" s="9">
         <v>88.960441582336699</v>
       </c>
-      <c r="G93" s="11">
+      <c r="G93" s="9">
         <v>87.750781328762983</v>
       </c>
     </row>
@@ -19298,22 +19287,22 @@
       <c r="A94" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B94" s="11">
+      <c r="B94" s="9">
         <v>67.290367290367286</v>
       </c>
-      <c r="C94" s="11">
+      <c r="C94" s="9">
         <v>65.684931506849324</v>
       </c>
-      <c r="D94" s="11">
+      <c r="D94" s="9">
         <v>61.965010934083097</v>
       </c>
-      <c r="E94" s="11">
+      <c r="E94" s="9">
         <v>55.965000841325931</v>
       </c>
-      <c r="F94" s="11">
+      <c r="F94" s="9">
         <v>57.200736648250462</v>
       </c>
-      <c r="G94" s="11">
+      <c r="G94" s="9">
         <v>52.834765032844864</v>
       </c>
     </row>
@@ -19321,22 +19310,22 @@
       <c r="A95" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B95" s="11">
+      <c r="B95" s="9">
         <v>16.944444444444446</v>
       </c>
-      <c r="C95" s="11">
+      <c r="C95" s="9">
         <v>12.808219178082192</v>
       </c>
-      <c r="D95" s="11">
+      <c r="D95" s="9">
         <v>11.123261990314013</v>
       </c>
-      <c r="E95" s="11">
+      <c r="E95" s="9">
         <v>8.8215488215488218</v>
       </c>
-      <c r="F95" s="11">
+      <c r="F95" s="9">
         <v>6.8767377201112145</v>
       </c>
-      <c r="G95" s="11">
+      <c r="G95" s="9">
         <v>4.5007602635580328</v>
       </c>
     </row>
@@ -19344,22 +19333,22 @@
       <c r="A96" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B96" s="11">
+      <c r="B96" s="9">
         <v>45.882352941176471</v>
       </c>
-      <c r="C96" s="11">
+      <c r="C96" s="9">
         <v>44.02472527472527</v>
       </c>
-      <c r="D96" s="11">
+      <c r="D96" s="9">
         <v>43.399468832994842</v>
       </c>
-      <c r="E96" s="11">
+      <c r="E96" s="9">
         <v>34.841857335127862</v>
       </c>
-      <c r="F96" s="11">
+      <c r="F96" s="9">
         <v>32.969876178155609</v>
       </c>
-      <c r="G96" s="11">
+      <c r="G96" s="9">
         <v>37.131313131313135</v>
       </c>
     </row>
@@ -19367,22 +19356,22 @@
       <c r="A97" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B97" s="11">
+      <c r="B97" s="9">
         <v>63.579820317899106</v>
       </c>
-      <c r="C97" s="11">
+      <c r="C97" s="9">
         <v>62.568306010928964</v>
       </c>
-      <c r="D97" s="11">
+      <c r="D97" s="9">
         <v>62.195502810743285</v>
       </c>
-      <c r="E97" s="11">
+      <c r="E97" s="9">
         <v>56.770395290159804</v>
       </c>
-      <c r="F97" s="11">
+      <c r="F97" s="9">
         <v>55.805381496498342</v>
       </c>
-      <c r="G97" s="11">
+      <c r="G97" s="9">
         <v>47.216619604679302</v>
       </c>
     </row>
@@ -19390,22 +19379,22 @@
       <c r="A98" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B98" s="11">
+      <c r="B98" s="9">
         <v>40.263340263340261</v>
       </c>
-      <c r="C98" s="11">
+      <c r="C98" s="9">
         <v>34.432989690721648</v>
       </c>
-      <c r="D98" s="11">
+      <c r="D98" s="9">
         <v>36.777117849327915</v>
       </c>
-      <c r="E98" s="11">
+      <c r="E98" s="9">
         <v>30.084175084175087</v>
       </c>
-      <c r="F98" s="11">
+      <c r="F98" s="9">
         <v>28.439349112426036</v>
       </c>
-      <c r="G98" s="11">
+      <c r="G98" s="9">
         <v>13.1520420541852</v>
       </c>
     </row>
@@ -19413,7 +19402,7 @@
       <c r="A99" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G99" s="11">
+      <c r="G99" s="9">
         <v>18.102838670572787</v>
       </c>
     </row>
@@ -19440,8 +19429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19480,19 +19469,19 @@
         <v>92</v>
       </c>
       <c r="B4" s="3">
-        <v>34.880904319741624</v>
+        <v>32.142446333668758</v>
       </c>
       <c r="C4" s="3">
-        <v>41.033434650455924</v>
+        <v>36.627135815994883</v>
       </c>
       <c r="D4" s="3">
-        <v>39.314805941542886</v>
+        <v>35.536513070795529</v>
       </c>
       <c r="E4" s="3">
-        <v>41.573621772505234</v>
+        <v>39.561718779938701</v>
       </c>
       <c r="F4" s="3">
-        <v>44.029411764705884</v>
+        <v>42.1057439589718</v>
       </c>
       <c r="G4" s="3">
         <v>38.017412555368871</v>
@@ -19503,19 +19492,19 @@
         <v>93</v>
       </c>
       <c r="B5" s="3">
-        <v>65.119095680258383</v>
+        <v>67.857553666331242</v>
       </c>
       <c r="C5" s="3">
-        <v>58.966565349544076</v>
+        <v>63.372864184005117</v>
       </c>
       <c r="D5" s="3">
-        <v>60.685194058457114</v>
+        <v>64.463486929204478</v>
       </c>
       <c r="E5" s="3">
-        <v>58.426378227494766</v>
+        <v>60.438281220061306</v>
       </c>
       <c r="F5" s="3">
-        <v>55.970588235294116</v>
+        <v>57.894256041028193</v>
       </c>
       <c r="G5" s="3">
         <v>61.982587444631129</v>
@@ -19574,19 +19563,19 @@
         <v>126</v>
       </c>
       <c r="B11" s="3">
-        <v>7.8247847248221634</v>
+        <v>6.0191767665381839</v>
       </c>
       <c r="C11" s="3">
-        <v>5.4794520547945202</v>
+        <v>4.3422521029929921</v>
       </c>
       <c r="D11" s="3">
-        <v>5.1170508565790653</v>
+        <v>4.156376199727192</v>
       </c>
       <c r="E11" s="3">
-        <v>6.1276518255485755</v>
+        <v>4.3655815855614692</v>
       </c>
       <c r="F11" s="3">
-        <v>6.6747024257947878</v>
+        <v>4.4656780403113823</v>
       </c>
       <c r="G11" s="3">
         <v>1.7227983650305712</v>
@@ -19597,19 +19586,19 @@
         <v>195</v>
       </c>
       <c r="B12" s="3">
-        <v>4.0621490078622235</v>
+        <v>4.1980488347222114</v>
       </c>
       <c r="C12" s="3">
-        <v>4.920692141312184</v>
+        <v>5.2824032116751454</v>
       </c>
       <c r="D12" s="3">
-        <v>5.2022602924029062</v>
+        <v>5.3029483574021485</v>
       </c>
       <c r="E12" s="3">
-        <v>4.9348993899663114</v>
+        <v>4.7993709852696051</v>
       </c>
       <c r="F12" s="3">
-        <v>4.7310531866807297</v>
+        <v>4.7706153523328449</v>
       </c>
       <c r="G12" s="3">
         <v>4.6447995135628144</v>
@@ -19620,19 +19609,19 @@
         <v>192</v>
       </c>
       <c r="B13" s="3">
-        <v>28.996630475477346</v>
+        <v>24.579319507905478</v>
       </c>
       <c r="C13" s="3">
-        <v>28.118240807498196</v>
+        <v>23.948517456301605</v>
       </c>
       <c r="D13" s="3">
-        <v>27.500224235357429</v>
+        <v>23.342338495257039</v>
       </c>
       <c r="E13" s="3">
-        <v>29.909860693799505</v>
+        <v>24.802890861869137</v>
       </c>
       <c r="F13" s="3">
-        <v>30.460549445030381</v>
+        <v>25.298796747588369</v>
       </c>
       <c r="G13" s="3">
         <v>32.95611931223187</v>
@@ -19643,19 +19632,19 @@
         <v>127</v>
       </c>
       <c r="B14" s="3">
-        <v>38.618494945713216</v>
+        <v>38.600614295445737</v>
       </c>
       <c r="C14" s="3">
-        <v>39.527757750540736</v>
+        <v>38.124292308090482</v>
       </c>
       <c r="D14" s="3">
-        <v>41.456632881872814</v>
+        <v>39.74559467264644</v>
       </c>
       <c r="E14" s="3">
-        <v>39.360830374214693</v>
+        <v>39.680255426765626</v>
       </c>
       <c r="F14" s="3">
-        <v>40.75636582793431</v>
+        <v>41.14169359207024</v>
       </c>
       <c r="G14" s="3">
         <v>40.722224098908896</v>
@@ -19666,19 +19655,19 @@
         <v>128</v>
       </c>
       <c r="B15" s="3">
-        <v>5.6158742044178211</v>
+        <v>7.7254830204997864</v>
       </c>
       <c r="C15" s="3">
-        <v>6.0922855082912761</v>
+        <v>7.6556402474011742</v>
       </c>
       <c r="D15" s="3">
-        <v>4.8838460848506591</v>
+        <v>6.0552692781820774</v>
       </c>
       <c r="E15" s="3">
-        <v>5.4356733133023765</v>
+        <v>7.1650998393893088</v>
       </c>
       <c r="F15" s="3">
-        <v>5.2935563256491385</v>
+        <v>7.2161256373038345</v>
       </c>
       <c r="G15" s="3">
         <v>5.9487214133702659</v>
@@ -19689,19 +19678,19 @@
         <v>193</v>
       </c>
       <c r="B16" s="3">
-        <v>14.114563833770125</v>
+        <v>17.746323885736278</v>
       </c>
       <c r="C16" s="3">
-        <v>15.23071377072819</v>
+        <v>19.818854590245554</v>
       </c>
       <c r="D16" s="3">
-        <v>15.32872903399408</v>
+        <v>20.67456896289254</v>
       </c>
       <c r="E16" s="3">
-        <v>13.639260675589549</v>
+        <v>18.454684835836275</v>
       </c>
       <c r="F16" s="3">
-        <v>11.531314348852394</v>
+        <v>16.381060384656884</v>
       </c>
       <c r="G16" s="3">
         <v>13.356754383001723</v>
@@ -19712,19 +19701,19 @@
         <v>194</v>
       </c>
       <c r="B17" s="3">
-        <v>0.76750280793710224</v>
+        <v>1.1310336891523221</v>
       </c>
       <c r="C17" s="3">
-        <v>0.63085796683489548</v>
+        <v>0.82804008329304002</v>
       </c>
       <c r="D17" s="3">
-        <v>0.5112566149430442</v>
+        <v>0.72290403389256419</v>
       </c>
       <c r="E17" s="3">
-        <v>0.59182372757898571</v>
+        <v>0.7321164653085821</v>
       </c>
       <c r="F17" s="3">
-        <v>0.55245844005825917</v>
+        <v>0.72603024573644215</v>
       </c>
       <c r="G17" s="3">
         <v>0.64858291389386213</v>
@@ -19744,7 +19733,7 @@
         <v>100</v>
       </c>
       <c r="E18" s="3">
-        <v>99.999999999999986</v>
+        <v>100.00000000000001</v>
       </c>
       <c r="F18" s="3">
         <v>100</v>
@@ -19783,22 +19772,22 @@
         <v>126</v>
       </c>
       <c r="B23" s="3">
-        <v>8.1005586592178762</v>
+        <v>6.2688551942568473</v>
       </c>
       <c r="C23" s="3">
-        <v>4.5921864290610008</v>
+        <v>4.1371002461880506</v>
       </c>
       <c r="D23" s="3">
-        <v>4.1287740996726079</v>
+        <v>3.2774023825136509</v>
       </c>
       <c r="E23" s="3">
-        <v>5.0407331975560083</v>
+        <v>3.5049078875611537</v>
       </c>
       <c r="F23" s="3">
-        <v>4.9523453560082222</v>
+        <v>3.5461633166987854</v>
       </c>
       <c r="G23" s="3">
-        <v>0.37029200169276344</v>
+        <v>0.48200909803415598</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -19809,19 +19798,19 @@
         <v>0</v>
       </c>
       <c r="C24" s="3">
-        <v>0.1370801919122687</v>
+        <v>0.14643102049919327</v>
       </c>
       <c r="D24" s="3">
-        <v>0.10913059294288831</v>
+        <v>0.10928887374453496</v>
       </c>
       <c r="E24" s="3">
-        <v>5.091649694501018E-2</v>
+        <v>2.4039673105750212E-2</v>
       </c>
       <c r="F24" s="3">
-        <v>9.3440478415249495E-2</v>
+        <v>8.198954972127466E-2</v>
       </c>
       <c r="G24" s="3">
-        <v>0.2010156580617859</v>
+        <v>0.2314466610404875</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -19829,22 +19818,22 @@
         <v>192</v>
       </c>
       <c r="B25" s="3">
-        <v>31.6340782122905</v>
+        <v>26.786381929955372</v>
       </c>
       <c r="C25" s="3">
-        <v>30.294722412611382</v>
+        <v>25.012588181938888</v>
       </c>
       <c r="D25" s="3">
-        <v>27.555474718079303</v>
+        <v>22.150027293863282</v>
       </c>
       <c r="E25" s="3">
-        <v>29.955872369314324</v>
+        <v>25.164993139207546</v>
       </c>
       <c r="F25" s="3">
-        <v>31.003550738179779</v>
+        <v>25.205421064620399</v>
       </c>
       <c r="G25" s="3">
-        <v>33.273381294964025</v>
+        <v>35.036012405714715</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -19852,22 +19841,22 @@
         <v>127</v>
       </c>
       <c r="B26" s="3">
-        <v>38.896648044692739</v>
+        <v>38.312599782117758</v>
       </c>
       <c r="C26" s="3">
-        <v>42.01507882111035</v>
+        <v>40.556104492256544</v>
       </c>
       <c r="D26" s="3">
-        <v>46.016733357584577</v>
+        <v>44.21712790784153</v>
       </c>
       <c r="E26" s="3">
-        <v>43.703326544467075</v>
+        <v>43.756678866777172</v>
       </c>
       <c r="F26" s="3">
-        <v>44.851429639319754</v>
+        <v>44.359812124167981</v>
       </c>
       <c r="G26" s="3">
-        <v>41.007194244604314</v>
+        <v>39.558066831606141</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -19875,22 +19864,22 @@
         <v>128</v>
       </c>
       <c r="B27" s="3">
-        <v>5.516759776536313</v>
+        <v>8.1310876492568589</v>
       </c>
       <c r="C27" s="3">
-        <v>6.5113091158327627</v>
+        <v>8.6485264642096151</v>
       </c>
       <c r="D27" s="3">
-        <v>5.9476173153874132</v>
+        <v>7.5346131392609221</v>
       </c>
       <c r="E27" s="3">
-        <v>7.0095044127630679</v>
+        <v>9.1052173169459589</v>
       </c>
       <c r="F27" s="3">
-        <v>6.0923191926742666</v>
+        <v>8.5172147310080373</v>
       </c>
       <c r="G27" s="3">
-        <v>7.5010579771476928</v>
+        <v>7.1318179040900835</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -19898,22 +19887,22 @@
         <v>193</v>
       </c>
       <c r="B28" s="3">
-        <v>14.175977653631286</v>
+        <v>18.234208371921124</v>
       </c>
       <c r="C28" s="3">
-        <v>14.941740918437285</v>
+        <v>19.229453816604558</v>
       </c>
       <c r="D28" s="3">
-        <v>15.33284830847581</v>
+        <v>21.305772769555055</v>
       </c>
       <c r="E28" s="3">
-        <v>13.11948404616429</v>
+        <v>16.990909662362931</v>
       </c>
       <c r="F28" s="3">
-        <v>12.035133619884133</v>
+        <v>16.954480218117077</v>
       </c>
       <c r="G28" s="3">
-        <v>16.515023275497249</v>
+        <v>16.032108714074823</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -19921,22 +19910,22 @@
         <v>194</v>
       </c>
       <c r="B29" s="3">
-        <v>1.6759776536312849</v>
+        <v>2.2668670724920443</v>
       </c>
       <c r="C29" s="3">
-        <v>1.5078821110349554</v>
+        <v>2.2697957783031475</v>
       </c>
       <c r="D29" s="3">
-        <v>0.90942160785740267</v>
+        <v>1.4057676332210307</v>
       </c>
       <c r="E29" s="3">
-        <v>1.1201629327902241</v>
+        <v>1.4532534540394861</v>
       </c>
       <c r="F29" s="3">
-        <v>0.97178097551859455</v>
+        <v>1.3349189956664465</v>
       </c>
       <c r="G29" s="3">
-        <v>1.1320355480321624</v>
+        <v>1.5285383854395889</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -19944,22 +19933,22 @@
         <v>69</v>
       </c>
       <c r="B30" s="3">
-        <v>99.999999999999986</v>
+        <v>100.00000000000001</v>
       </c>
       <c r="C30" s="3">
         <v>100</v>
       </c>
       <c r="D30" s="3">
-        <v>99.999999999999986</v>
+        <v>100.00000000000001</v>
       </c>
       <c r="E30" s="3">
         <v>99.999999999999986</v>
       </c>
       <c r="F30" s="3">
-        <v>100.00000000000001</v>
+        <v>100</v>
       </c>
       <c r="G30" s="3">
-        <v>99.999999999999986</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -19992,22 +19981,22 @@
         <v>129</v>
       </c>
       <c r="B35" s="3">
-        <v>29.528535980148884</v>
+        <v>36.252099487996261</v>
       </c>
       <c r="C35" s="3">
-        <v>32.588832487309645</v>
+        <v>39.346293310736826</v>
       </c>
       <c r="D35" s="3">
-        <v>31.195335276967928</v>
+        <v>42.021537719874367</v>
       </c>
       <c r="E35" s="3">
-        <v>24.818250188017046</v>
+        <v>34.894109769801702</v>
       </c>
       <c r="F35" s="3">
-        <v>20.812711643657202</v>
+        <v>28.270204035224829</v>
       </c>
       <c r="G35" s="3">
-        <v>43.439823186658629</v>
+        <v>45.76527729811994</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -20015,22 +20004,22 @@
         <v>140</v>
       </c>
       <c r="B36" s="3">
-        <v>1.1166253101736971</v>
+        <v>1.2687416812424532</v>
       </c>
       <c r="C36" s="3">
-        <v>0.91370558375634525</v>
+        <v>0.70813639339932533</v>
       </c>
       <c r="D36" s="3">
-        <v>0.99611273080660834</v>
+        <v>0.79483160206851378</v>
       </c>
       <c r="E36" s="3">
-        <v>0.70193030834795689</v>
+        <v>0.488696354092504</v>
       </c>
       <c r="F36" s="3">
-        <v>0.88564730398541291</v>
+        <v>0.70589379538121066</v>
       </c>
       <c r="G36" s="3">
-        <v>0.98452883263009849</v>
+        <v>0.91635264839625241</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -20044,16 +20033,16 @@
         <v>0</v>
       </c>
       <c r="D37" s="3">
-        <v>0.12147716229348883</v>
+        <v>1.6392499774360796E-2</v>
       </c>
       <c r="E37" s="3">
         <v>0</v>
       </c>
       <c r="F37" s="3">
-        <v>0.23443605105496224</v>
+        <v>0.28298080881209708</v>
       </c>
       <c r="G37" s="3">
-        <v>0.12055455093429776</v>
+        <v>0.20389973580139531</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -20061,22 +20050,22 @@
         <v>142</v>
       </c>
       <c r="B38" s="3">
-        <v>0.24813895781637718</v>
+        <v>0.62975951890414683</v>
       </c>
       <c r="C38" s="3">
-        <v>0.10152284263959391</v>
+        <v>0.37803663495452267</v>
       </c>
       <c r="D38" s="3">
-        <v>0.21865889212827988</v>
+        <v>0.25519309438482568</v>
       </c>
       <c r="E38" s="3">
-        <v>0.22562045625470042</v>
+        <v>0.23761828871867299</v>
       </c>
       <c r="F38" s="3">
-        <v>0.49492055222714249</v>
+        <v>0.66921553733476802</v>
       </c>
       <c r="G38" s="3">
-        <v>0.76351215591721922</v>
+        <v>1.1818394283446396</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -20084,22 +20073,22 @@
         <v>143</v>
       </c>
       <c r="B39" s="3">
-        <v>0.99255583126550873</v>
+        <v>0.93736809280812916</v>
       </c>
       <c r="C39" s="3">
-        <v>1.6243654822335025</v>
+        <v>1.3715052905540364</v>
       </c>
       <c r="D39" s="3">
-        <v>2.5024295432458699</v>
+        <v>1.8096371958528916</v>
       </c>
       <c r="E39" s="3">
-        <v>2.6071697167209829</v>
+        <v>2.0957708735376039</v>
       </c>
       <c r="F39" s="3">
-        <v>3.073717113831727</v>
+        <v>2.260798510677791</v>
       </c>
       <c r="G39" s="3">
-        <v>1.4868394615230058</v>
+        <v>2.168428297406535</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -20110,19 +20099,19 @@
         <v>0</v>
       </c>
       <c r="C40" s="3">
-        <v>1.4213197969543148</v>
+        <v>1.7171218065467513</v>
       </c>
       <c r="D40" s="3">
-        <v>1.0204081632653061</v>
+        <v>0.93389859095586358</v>
       </c>
       <c r="E40" s="3">
-        <v>0.92755076460265728</v>
+        <v>0.53259271609357739</v>
       </c>
       <c r="F40" s="3">
-        <v>1.3545194060953372</v>
+        <v>1.1963927224308608</v>
       </c>
       <c r="G40" s="3">
-        <v>0.64295760498292143</v>
+        <v>0.6643917083227775</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -20130,22 +20119,22 @@
         <v>144</v>
       </c>
       <c r="B41" s="3">
-        <v>1.1166253101736971</v>
+        <v>1.6484472677317348</v>
       </c>
       <c r="C41" s="3">
-        <v>0.81218274111675126</v>
+        <v>0.76890485806568765</v>
       </c>
       <c r="D41" s="3">
-        <v>0.75315840621963071</v>
+        <v>0.54263266992893922</v>
       </c>
       <c r="E41" s="3">
-        <v>1.4289295562797695</v>
+        <v>1.2763594421949169</v>
       </c>
       <c r="F41" s="3">
-        <v>1.2242771555092471</v>
+        <v>1.1200053698887598</v>
       </c>
       <c r="G41" s="3">
-        <v>1.4064697609001406</v>
+        <v>1.4144470691866644</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -20153,22 +20142,22 @@
         <v>145</v>
       </c>
       <c r="B42" s="3">
-        <v>23.325062034739457</v>
+        <v>21.880387393795914</v>
       </c>
       <c r="C42" s="3">
-        <v>18.3756345177665</v>
+        <v>15.437302945432736</v>
       </c>
       <c r="D42" s="3">
-        <v>19.144800777453838</v>
+        <v>16.904027622116047</v>
       </c>
       <c r="E42" s="3">
-        <v>21.358736525444975</v>
+        <v>18.656448136039561</v>
       </c>
       <c r="F42" s="3">
-        <v>18.312060432404273</v>
+        <v>17.610872106921061</v>
       </c>
       <c r="G42" s="3">
-        <v>12.999799075748442</v>
+        <v>14.317730259788139</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -20176,22 +20165,22 @@
         <v>146</v>
       </c>
       <c r="B43" s="3">
-        <v>27.915632754342433</v>
+        <v>25.819044250777846</v>
       </c>
       <c r="C43" s="3">
-        <v>28.121827411167509</v>
+        <v>26.567131985979891</v>
       </c>
       <c r="D43" s="3">
-        <v>28.765792031098155</v>
+        <v>24.671896900869751</v>
       </c>
       <c r="E43" s="3">
-        <v>26.497869140135371</v>
+        <v>24.379495741254427</v>
       </c>
       <c r="F43" s="3">
-        <v>29.564990883042459</v>
+        <v>26.322146750018664</v>
       </c>
       <c r="G43" s="3">
-        <v>22.121760096443641</v>
+        <v>18.389652149749757</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -20202,19 +20191,19 @@
         <v>0</v>
       </c>
       <c r="C44" s="3">
-        <v>0.10152284263959391</v>
+        <v>2.4936860002531105E-2</v>
       </c>
       <c r="D44" s="3">
-        <v>0.1943634596695821</v>
+        <v>8.1187032391019487E-2</v>
       </c>
       <c r="E44" s="3">
-        <v>0.17548257708698922</v>
+        <v>0.10442733498133216</v>
       </c>
       <c r="F44" s="3">
-        <v>0.13024225058609012</v>
+        <v>0.17227822325175532</v>
       </c>
       <c r="G44" s="3">
-        <v>0.24110910186859552</v>
+        <v>0.23104342806737527</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -20222,22 +20211,22 @@
         <v>148</v>
       </c>
       <c r="B45" s="3">
-        <v>0.49627791563275436</v>
+        <v>0.50732558577820264</v>
       </c>
       <c r="C45" s="3">
-        <v>0.20304568527918782</v>
+        <v>0.12327568656149754</v>
       </c>
       <c r="D45" s="3">
-        <v>0.21865889212827988</v>
+        <v>2.8799963466912458E-2</v>
       </c>
       <c r="E45" s="3">
-        <v>0.40110303334168962</v>
+        <v>0.32655167175939243</v>
       </c>
       <c r="F45" s="3">
-        <v>0.18233915082052618</v>
+        <v>0.20380234699755412</v>
       </c>
       <c r="G45" s="3">
-        <v>0.14064697609001406</v>
+        <v>0.23389581606820703</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -20245,22 +20234,22 @@
         <v>149</v>
       </c>
       <c r="B46" s="3">
-        <v>8.4367245657568244</v>
+        <v>6.4806579781345821</v>
       </c>
       <c r="C46" s="3">
-        <v>9.8477157360406089</v>
+        <v>8.8233125526166649</v>
       </c>
       <c r="D46" s="3">
-        <v>9.110787172011662</v>
+        <v>7.3147814466197962</v>
       </c>
       <c r="E46" s="3">
-        <v>11.682125846076712</v>
+        <v>9.0160542056383921</v>
       </c>
       <c r="F46" s="3">
-        <v>9.9244594946600682</v>
+        <v>7.5872966514223013</v>
       </c>
       <c r="G46" s="3">
-        <v>6.6104078762306617</v>
+        <v>6.0016390496211232</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -20268,22 +20257,22 @@
         <v>150</v>
       </c>
       <c r="B47" s="3">
-        <v>1.240694789081886</v>
+        <v>1.0177253860344584</v>
       </c>
       <c r="C47" s="3">
-        <v>2.030456852791878</v>
+        <v>1.3928105690028008</v>
       </c>
       <c r="D47" s="3">
-        <v>1.0932944606413995</v>
+        <v>0.70321885365805847</v>
       </c>
       <c r="E47" s="3">
-        <v>1.6294810729506142</v>
+        <v>1.2292692348858401</v>
       </c>
       <c r="F47" s="3">
-        <v>1.7973430580880436</v>
+        <v>1.5016167885736438</v>
       </c>
       <c r="G47" s="3">
-        <v>2.6120152702431185</v>
+        <v>2.4064646767017561</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -20291,22 +20280,22 @@
         <v>151</v>
       </c>
       <c r="B48" s="3">
-        <v>2.2332506203473943</v>
+        <v>1.7224422736034848</v>
       </c>
       <c r="C48" s="3">
-        <v>0.91370558375634525</v>
+        <v>1.0010399528994878</v>
       </c>
       <c r="D48" s="3">
-        <v>1.0932944606413995</v>
+        <v>1.1955969874850481</v>
       </c>
       <c r="E48" s="3">
-        <v>1.4790674354474806</v>
+        <v>1.1032454221075312</v>
       </c>
       <c r="F48" s="3">
-        <v>1.4326647564469914</v>
+        <v>1.3127802667547035</v>
       </c>
       <c r="G48" s="3">
-        <v>1.848503114325899</v>
+        <v>1.7004526402378095</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -20314,22 +20303,22 @@
         <v>152</v>
       </c>
       <c r="B49" s="3">
-        <v>3.3498759305210917</v>
+        <v>1.8360010831927884</v>
       </c>
       <c r="C49" s="3">
-        <v>2.9441624365482233</v>
+        <v>2.3401911532472388</v>
       </c>
       <c r="D49" s="3">
-        <v>3.5714285714285712</v>
+        <v>2.7263678205536097</v>
       </c>
       <c r="E49" s="3">
-        <v>6.0666833792930559</v>
+        <v>5.6593608088945553</v>
       </c>
       <c r="F49" s="3">
-        <v>10.575670747590518</v>
+        <v>10.783716086310003</v>
       </c>
       <c r="G49" s="3">
-        <v>4.5810729355033146</v>
+        <v>4.4044857941876305</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -20337,22 +20326,22 @@
         <v>69</v>
       </c>
       <c r="B50" s="3">
-        <v>100.00000000000001</v>
+        <v>100</v>
       </c>
       <c r="C50" s="3">
         <v>100</v>
       </c>
       <c r="D50" s="3">
+        <v>99.999999999999986</v>
+      </c>
+      <c r="E50" s="3">
         <v>100.00000000000001</v>
       </c>
-      <c r="E50" s="3">
+      <c r="F50" s="3">
         <v>100</v>
       </c>
-      <c r="F50" s="3">
+      <c r="G50" s="3">
         <v>100.00000000000001</v>
-      </c>
-      <c r="G50" s="3">
-        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -20578,10 +20567,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="G4" sqref="G4:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20590,12 +20579,12 @@
     <col min="2" max="7" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -20615,49 +20604,64 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="9">
-        <f>55.9637806001843/100</f>
-        <v>0.55963780600184299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="14">
+        <f>+H4/100</f>
+        <v>0.53038170105261873</v>
+      </c>
+      <c r="H4">
+        <v>53.038170105261869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="9">
-        <f>40.750831363436/100</f>
-        <v>0.40750831363436002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="14">
+        <f t="shared" ref="G5:G8" si="0">+H5/100</f>
+        <v>0.47916414090405235</v>
+      </c>
+      <c r="H5">
+        <v>47.916414090405233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="10">
-        <f>5.06430546095597/100</f>
-        <v>5.0643054609559701E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="14">
+        <f t="shared" si="0"/>
+        <v>6.0371096424121633E-2</v>
+      </c>
+      <c r="H6">
+        <v>6.0371096424121635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="9">
-        <f>57.4702512119877/100</f>
-        <v>0.574702512119877</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="14">
+        <f t="shared" si="0"/>
+        <v>0.59414993689435003</v>
+      </c>
+      <c r="H7">
+        <v>59.414993689435001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="9">
-        <f>15.2369886614047/100</f>
-        <v>0.15236988661404699</v>
+      <c r="G8" s="14">
+        <f t="shared" si="0"/>
+        <v>0.12587036814168245</v>
+      </c>
+      <c r="H8">
+        <v>12.587036814168245</v>
       </c>
     </row>
   </sheetData>
@@ -20667,6 +20671,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D97C45C73161C540AAAEC0BB7C04B14C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eaac3f66d04ba47d8e7bacccdec8bc8e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445" xmlns:ns4="72d74521-8c27-4702-99f8-167624e069b6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e42dd572579043e93d80e2ef1a203961" ns3:_="" ns4:_="">
     <xsd:import namespace="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445"/>
@@ -20889,15 +20902,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -20905,6 +20909,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C30E79AF-C9F7-44BC-84F3-9FDB2966CDCD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDE4FD95-407A-4586-99CF-839F5B5F5351}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20919,14 +20931,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C30E79AF-C9F7-44BC-84F3-9FDB2966CDCD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
